--- a/tests/Gauges/GroupTagTests_FormulasInGroupRow.xlsx
+++ b/tests/Gauges/GroupTagTests_FormulasInGroupRow.xlsx
@@ -10,15 +10,15 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
+    <x:definedName name="Orders_tpl" localSheetId="0">Sheet1!$A$5:$H$263</x:definedName>
     <x:definedName name="Orders">Sheet1!$A$5:$H$263</x:definedName>
-    <x:definedName name="Orders_tpl">Sheet1!$A$5:$H$263</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Formulas in group row</x:t>
   </x:si>
@@ -242,7 +242,6 @@
       <x:sz val="8"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
@@ -290,7 +289,6 @@
       <x:color indexed="9"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -669,11 +667,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1821180" cy="609600"/>
+    <xdr:ext cx="1819275" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Рисунок 2"/>
@@ -690,7 +688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1821180" cy="609600"/>
+          <a:ext cx="1819275" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -1047,7 +1045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr codeName="Sheet1">
     <x:outlinePr summaryBelow="0" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
@@ -1069,40 +1067,40 @@
     <x:col min="10" max="11" width="12.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:11" customFormat="1" ht="51" customHeight="1">
+    <x:row r="1" spans="1:11" ht="51" customHeight="1">
       <x:c r="B1" s="26" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" s="27" t="s"/>
-      <x:c r="D1" s="27" t="s"/>
-      <x:c r="E1" s="27" t="s"/>
-      <x:c r="F1" s="27" t="s"/>
-      <x:c r="G1" s="27" t="s"/>
-      <x:c r="H1" s="27" t="s"/>
-      <x:c r="I1" s="28" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:11" customFormat="1" ht="12.75" customHeight="1">
-      <x:c r="B2" s="29" t="s"/>
-      <x:c r="C2" s="29" t="s"/>
-      <x:c r="D2" s="29" t="s"/>
-      <x:c r="E2" s="29" t="s"/>
-      <x:c r="F2" s="29" t="s"/>
-      <x:c r="G2" s="29" t="s"/>
-      <x:c r="H2" s="29" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:11" customFormat="1" ht="12" customHeight="1">
-      <x:c r="B3" s="30" t="s"/>
-      <x:c r="C3" s="30" t="s"/>
-      <x:c r="D3" s="31" t="s"/>
-      <x:c r="E3" s="31" t="s"/>
-      <x:c r="F3" s="31" t="s"/>
-      <x:c r="G3" s="30" t="s"/>
-      <x:c r="H3" s="30" t="s"/>
-      <x:c r="I3" s="31" t="s"/>
-      <x:c r="J3" s="30" t="s"/>
-      <x:c r="K3" s="31" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:11" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="C1" s="27"/>
+      <x:c r="D1" s="27"/>
+      <x:c r="E1" s="27"/>
+      <x:c r="F1" s="27"/>
+      <x:c r="G1" s="27"/>
+      <x:c r="H1" s="27"/>
+      <x:c r="I1" s="28"/>
+    </x:row>
+    <x:row r="2" spans="1:11" ht="12.75" customHeight="1">
+      <x:c r="B2" s="29"/>
+      <x:c r="C2" s="29"/>
+      <x:c r="D2" s="29"/>
+      <x:c r="E2" s="29"/>
+      <x:c r="F2" s="29"/>
+      <x:c r="G2" s="29"/>
+      <x:c r="H2" s="29"/>
+    </x:row>
+    <x:row r="3" spans="1:11" ht="12" customHeight="1">
+      <x:c r="B3" s="30"/>
+      <x:c r="C3" s="30"/>
+      <x:c r="D3" s="31"/>
+      <x:c r="E3" s="31"/>
+      <x:c r="F3" s="31"/>
+      <x:c r="G3" s="30"/>
+      <x:c r="H3" s="30"/>
+      <x:c r="I3" s="31"/>
+      <x:c r="J3" s="30"/>
+      <x:c r="K3" s="31"/>
+    </x:row>
+    <x:row r="4" spans="1:11" ht="22.5" customHeight="1">
       <x:c r="B4" s="32" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1125,19 +1123,19 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:11">
-      <x:c r="B5" s="34" t="s"/>
-      <x:c r="C5" s="35" t="s"/>
-      <x:c r="D5" s="36" t="s"/>
-      <x:c r="E5" s="37" t="s"/>
-      <x:c r="F5" s="38" t="s"/>
-      <x:c r="G5" s="36" t="s"/>
+    <x:row r="5" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B5" s="34"/>
+      <x:c r="C5" s="35"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="37"/>
+      <x:c r="F5" s="38"/>
+      <x:c r="G5" s="36"/>
       <x:c r="H5" s="39" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:11" outlineLevel="1">
-      <x:c r="B6" s="40" t="n">
+    <x:row r="6" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B6" s="40">
         <x:v>1014</x:v>
       </x:c>
       <x:c r="C6" s="41" t="s">
@@ -1149,62 +1147,62 @@
       <x:c r="E6" s="42">
         <x:v>32288</x:v>
       </x:c>
-      <x:c r="F6" s="43" t="n">
+      <x:c r="F6" s="43">
         <x:v>134.85</x:v>
       </x:c>
-      <x:c r="G6" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H6" s="43" t="n">
+      <x:c r="G6" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H6" s="43">
         <x:v>134.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:11" outlineLevel="1">
-      <x:c r="B7" s="40" t="n">
-        <x:v>1129</x:v>
+    <x:row r="7" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B7" s="40">
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="C7" s="41" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D7" s="42">
+        <x:v>32343</x:v>
+      </x:c>
+      <x:c r="E7" s="42">
+        <x:v>32342</x:v>
+      </x:c>
+      <x:c r="F7" s="43">
+        <x:v>20108</x:v>
+      </x:c>
+      <x:c r="G7" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H7" s="43">
+        <x:v>20108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B8" s="40">
+        <x:v>1129</x:v>
+      </x:c>
+      <x:c r="C8" s="41"/>
+      <x:c r="D8" s="42">
         <x:v>34261</x:v>
       </x:c>
-      <x:c r="E7" s="42">
+      <x:c r="E8" s="42">
         <x:v>34261</x:v>
       </x:c>
-      <x:c r="F7" s="43" t="n">
+      <x:c r="F8" s="43">
         <x:v>1004.8</x:v>
       </x:c>
-      <x:c r="G7" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="43" t="n">
+      <x:c r="G8" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H8" s="43">
         <x:v>1004.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:11" outlineLevel="1">
-      <x:c r="B8" s="40" t="n">
-        <x:v>1029</x:v>
-      </x:c>
-      <x:c r="C8" s="41" t="s"/>
-      <x:c r="D8" s="42">
-        <x:v>32343</x:v>
-      </x:c>
-      <x:c r="E8" s="42">
-        <x:v>32342</x:v>
-      </x:c>
-      <x:c r="F8" s="43" t="n">
-        <x:v>20108</x:v>
-      </x:c>
-      <x:c r="G8" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="43" t="n">
-        <x:v>20108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:11" outlineLevel="1">
-      <x:c r="B9" s="40" t="n">
+    <x:row r="9" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B9" s="40">
         <x:v>1038</x:v>
       </x:c>
       <x:c r="C9" s="41" t="s">
@@ -1216,29 +1214,29 @@
       <x:c r="E9" s="42">
         <x:v>32381</x:v>
       </x:c>
-      <x:c r="F9" s="43" t="n">
+      <x:c r="F9" s="43">
         <x:v>10152</x:v>
       </x:c>
-      <x:c r="G9" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="43" t="n">
+      <x:c r="G9" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H9" s="43">
         <x:v>10152</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:11">
-      <x:c r="B10" s="34" t="s"/>
-      <x:c r="C10" s="35" t="s"/>
-      <x:c r="D10" s="36" t="s"/>
-      <x:c r="E10" s="37" t="s"/>
-      <x:c r="F10" s="38" t="s"/>
-      <x:c r="G10" s="36" t="s"/>
+    <x:row r="10" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B10" s="34"/>
+      <x:c r="C10" s="35"/>
+      <x:c r="D10" s="36"/>
+      <x:c r="E10" s="37"/>
+      <x:c r="F10" s="38"/>
+      <x:c r="G10" s="36"/>
       <x:c r="H10" s="39" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:11" outlineLevel="1">
-      <x:c r="B11" s="40" t="n">
+    <x:row r="11" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B11" s="40">
         <x:v>1039</x:v>
       </x:c>
       <x:c r="C11" s="41" t="s">
@@ -1250,29 +1248,29 @@
       <x:c r="E11" s="42">
         <x:v>32384</x:v>
       </x:c>
-      <x:c r="F11" s="43" t="n">
+      <x:c r="F11" s="43">
         <x:v>536.8</x:v>
       </x:c>
-      <x:c r="G11" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H11" s="43" t="n">
+      <x:c r="G11" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H11" s="43">
         <x:v>536.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:11">
-      <x:c r="B12" s="34" t="s"/>
-      <x:c r="C12" s="35" t="s"/>
-      <x:c r="D12" s="36" t="s"/>
-      <x:c r="E12" s="37" t="s"/>
-      <x:c r="F12" s="38" t="s"/>
-      <x:c r="G12" s="36" t="s"/>
+    <x:row r="12" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B12" s="34"/>
+      <x:c r="C12" s="35"/>
+      <x:c r="D12" s="36"/>
+      <x:c r="E12" s="37"/>
+      <x:c r="F12" s="38"/>
+      <x:c r="G12" s="36"/>
       <x:c r="H12" s="39" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:11" outlineLevel="1">
-      <x:c r="B13" s="40" t="n">
+    <x:row r="13" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B13" s="40">
         <x:v>1017</x:v>
       </x:c>
       <x:c r="C13" s="41" t="s">
@@ -1284,201 +1282,201 @@
       <x:c r="E13" s="42">
         <x:v>32306</x:v>
       </x:c>
-      <x:c r="F13" s="43" t="n">
+      <x:c r="F13" s="43">
         <x:v>10195</x:v>
       </x:c>
-      <x:c r="G13" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H13" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:11" outlineLevel="1">
-      <x:c r="B14" s="40" t="n">
+      <x:c r="G13" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H13" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B14" s="40">
+        <x:v>1117</x:v>
+      </x:c>
+      <x:c r="C14" s="41"/>
+      <x:c r="D14" s="42">
+        <x:v>34072</x:v>
+      </x:c>
+      <x:c r="E14" s="42">
+        <x:v>34072</x:v>
+      </x:c>
+      <x:c r="F14" s="43">
+        <x:v>6734.85</x:v>
+      </x:c>
+      <x:c r="G14" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H14" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B15" s="40">
         <x:v>1217</x:v>
       </x:c>
-      <x:c r="C14" s="41" t="s"/>
-      <x:c r="D14" s="42">
+      <x:c r="C15" s="41"/>
+      <x:c r="D15" s="42">
         <x:v>34660</x:v>
       </x:c>
-      <x:c r="E14" s="42">
+      <x:c r="E15" s="42">
         <x:v>34660</x:v>
       </x:c>
-      <x:c r="F14" s="43" t="n">
+      <x:c r="F15" s="43">
         <x:v>51730.8</x:v>
       </x:c>
-      <x:c r="G14" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="43" t="n">
+      <x:c r="G15" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="43">
         <x:v>51730.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:11" outlineLevel="1">
-      <x:c r="B15" s="40" t="n">
-        <x:v>1117</x:v>
-      </x:c>
-      <x:c r="C15" s="41" t="s"/>
-      <x:c r="D15" s="42">
-        <x:v>34072</x:v>
-      </x:c>
-      <x:c r="E15" s="42">
-        <x:v>34072</x:v>
-      </x:c>
-      <x:c r="F15" s="43" t="n">
-        <x:v>6734.85</x:v>
-      </x:c>
-      <x:c r="G15" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:11" outlineLevel="1">
-      <x:c r="B16" s="40" t="n">
+    <x:row r="16" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B16" s="40">
         <x:v>1317</x:v>
       </x:c>
-      <x:c r="C16" s="41" t="s"/>
+      <x:c r="C16" s="41"/>
       <x:c r="D16" s="42">
         <x:v>34731</x:v>
       </x:c>
       <x:c r="E16" s="42">
         <x:v>34731</x:v>
       </x:c>
-      <x:c r="F16" s="43" t="n">
+      <x:c r="F16" s="43">
         <x:v>7572</x:v>
       </x:c>
-      <x:c r="G16" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="43" t="n">
+      <x:c r="G16" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="43">
         <x:v>7572</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:11" outlineLevel="1">
-      <x:c r="B17" s="40" t="n">
-        <x:v>1137</x:v>
+    <x:row r="17" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B17" s="40">
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="C17" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="42">
+        <x:v>32382</x:v>
+      </x:c>
+      <x:c r="E17" s="42">
+        <x:v>32381</x:v>
+      </x:c>
+      <x:c r="F17" s="43">
+        <x:v>3117</x:v>
+      </x:c>
+      <x:c r="G17" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H17" s="43">
+        <x:v>3117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B18" s="40">
+        <x:v>1099</x:v>
+      </x:c>
+      <x:c r="C18" s="41"/>
+      <x:c r="D18" s="42">
+        <x:v>32675</x:v>
+      </x:c>
+      <x:c r="E18" s="42">
+        <x:v>32675</x:v>
+      </x:c>
+      <x:c r="F18" s="43">
+        <x:v>859.95</x:v>
+      </x:c>
+      <x:c r="G18" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H18" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B19" s="40">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C19" s="41"/>
+      <x:c r="D19" s="42">
         <x:v>34300</x:v>
       </x:c>
-      <x:c r="E17" s="42">
+      <x:c r="E19" s="42">
         <x:v>34300</x:v>
       </x:c>
-      <x:c r="F17" s="43" t="n">
+      <x:c r="F19" s="43">
         <x:v>6785.4</x:v>
       </x:c>
-      <x:c r="G17" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H17" s="43" t="n">
+      <x:c r="G19" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H19" s="43">
         <x:v>6785.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:11" outlineLevel="1">
-      <x:c r="B18" s="40" t="n">
-        <x:v>1037</x:v>
-      </x:c>
-      <x:c r="C18" s="41" t="s"/>
-      <x:c r="D18" s="42">
-        <x:v>32382</x:v>
-      </x:c>
-      <x:c r="E18" s="42">
-        <x:v>32381</x:v>
-      </x:c>
-      <x:c r="F18" s="43" t="n">
-        <x:v>3117</x:v>
-      </x:c>
-      <x:c r="G18" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H18" s="43" t="n">
-        <x:v>3117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:11" outlineLevel="1">
-      <x:c r="B19" s="40" t="n">
-        <x:v>1099</x:v>
-      </x:c>
-      <x:c r="C19" s="41" t="s"/>
-      <x:c r="D19" s="42">
-        <x:v>32675</x:v>
-      </x:c>
-      <x:c r="E19" s="42">
-        <x:v>32675</x:v>
-      </x:c>
-      <x:c r="F19" s="43" t="n">
-        <x:v>859.95</x:v>
-      </x:c>
-      <x:c r="G19" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H19" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:11" outlineLevel="1">
-      <x:c r="B20" s="40" t="n">
-        <x:v>1294</x:v>
+    <x:row r="20" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B20" s="40">
+        <x:v>1074</x:v>
       </x:c>
       <x:c r="C20" s="41" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D20" s="42">
+        <x:v>32618</x:v>
+      </x:c>
+      <x:c r="E20" s="42">
+        <x:v>32617</x:v>
+      </x:c>
+      <x:c r="F20" s="43">
+        <x:v>2195</x:v>
+      </x:c>
+      <x:c r="G20" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H20" s="43">
+        <x:v>2195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B21" s="40">
+        <x:v>1294</x:v>
+      </x:c>
+      <x:c r="C21" s="41"/>
+      <x:c r="D21" s="42">
         <x:v>34703</x:v>
       </x:c>
-      <x:c r="E20" s="42">
+      <x:c r="E21" s="42">
         <x:v>34703</x:v>
       </x:c>
-      <x:c r="F20" s="43" t="n">
+      <x:c r="F21" s="43">
         <x:v>3304.85</x:v>
       </x:c>
-      <x:c r="G20" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H20" s="43" t="n">
+      <x:c r="G21" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H21" s="43">
         <x:v>3304.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:11" outlineLevel="1">
-      <x:c r="B21" s="40" t="n">
-        <x:v>1074</x:v>
-      </x:c>
-      <x:c r="C21" s="41" t="s"/>
-      <x:c r="D21" s="42">
-        <x:v>32618</x:v>
-      </x:c>
-      <x:c r="E21" s="42">
-        <x:v>32617</x:v>
-      </x:c>
-      <x:c r="F21" s="43" t="n">
-        <x:v>2195</x:v>
-      </x:c>
-      <x:c r="G21" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H21" s="43" t="n">
-        <x:v>2195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:11">
-      <x:c r="B22" s="34" t="s"/>
-      <x:c r="C22" s="35" t="s"/>
-      <x:c r="D22" s="36" t="s"/>
-      <x:c r="E22" s="37" t="s"/>
-      <x:c r="F22" s="38" t="s"/>
-      <x:c r="G22" s="36" t="s"/>
+    <x:row r="22" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B22" s="34"/>
+      <x:c r="C22" s="35"/>
+      <x:c r="D22" s="36"/>
+      <x:c r="E22" s="37"/>
+      <x:c r="F22" s="38"/>
+      <x:c r="G22" s="36"/>
       <x:c r="H22" s="39" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:11" outlineLevel="1">
-      <x:c r="B23" s="40" t="n">
+    <x:row r="23" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B23" s="40">
         <x:v>1204</x:v>
       </x:c>
       <x:c r="C23" s="41" t="s">
@@ -1490,73 +1488,73 @@
       <x:c r="E23" s="42">
         <x:v>34625</x:v>
       </x:c>
-      <x:c r="F23" s="43" t="n">
+      <x:c r="F23" s="43">
         <x:v>10263.75</x:v>
       </x:c>
-      <x:c r="G23" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H23" s="43" t="n">
+      <x:c r="G23" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H23" s="43">
         <x:v>10263.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:11" outlineLevel="1">
-      <x:c r="B24" s="40" t="n">
-        <x:v>1355</x:v>
+    <x:row r="24" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B24" s="40">
+        <x:v>1263</x:v>
       </x:c>
       <x:c r="C24" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D24" s="42">
+        <x:v>34682</x:v>
+      </x:c>
+      <x:c r="E24" s="42">
+        <x:v>34682</x:v>
+      </x:c>
+      <x:c r="F24" s="43">
+        <x:v>158922.65</x:v>
+      </x:c>
+      <x:c r="G24" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H24" s="43">
+        <x:v>158922.65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B25" s="40">
+        <x:v>1355</x:v>
+      </x:c>
+      <x:c r="C25" s="41"/>
+      <x:c r="D25" s="42">
         <x:v>34735</x:v>
       </x:c>
-      <x:c r="E24" s="42">
+      <x:c r="E25" s="42">
         <x:v>34735</x:v>
       </x:c>
-      <x:c r="F24" s="43" t="n">
+      <x:c r="F25" s="43">
         <x:v>13908</x:v>
       </x:c>
-      <x:c r="G24" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H24" s="43" t="n">
+      <x:c r="G25" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H25" s="43">
         <x:v>13908</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:11" outlineLevel="1">
-      <x:c r="B25" s="40" t="n">
-        <x:v>1263</x:v>
-      </x:c>
-      <x:c r="C25" s="41" t="s"/>
-      <x:c r="D25" s="42">
-        <x:v>34682</x:v>
-      </x:c>
-      <x:c r="E25" s="42">
-        <x:v>34682</x:v>
-      </x:c>
-      <x:c r="F25" s="43" t="n">
-        <x:v>158922.65</x:v>
-      </x:c>
-      <x:c r="G25" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H25" s="43" t="n">
-        <x:v>158922.65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:11">
-      <x:c r="B26" s="34" t="s"/>
-      <x:c r="C26" s="35" t="s"/>
-      <x:c r="D26" s="36" t="s"/>
-      <x:c r="E26" s="37" t="s"/>
-      <x:c r="F26" s="38" t="s"/>
-      <x:c r="G26" s="36" t="s"/>
+    <x:row r="26" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B26" s="34"/>
+      <x:c r="C26" s="35"/>
+      <x:c r="D26" s="36"/>
+      <x:c r="E26" s="37"/>
+      <x:c r="F26" s="38"/>
+      <x:c r="G26" s="36"/>
       <x:c r="H26" s="39" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:11" outlineLevel="1">
-      <x:c r="B27" s="40" t="n">
+    <x:row r="27" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B27" s="40">
         <x:v>1065</x:v>
       </x:c>
       <x:c r="C27" s="41" t="s">
@@ -1568,29 +1566,29 @@
       <x:c r="E27" s="42">
         <x:v>32592</x:v>
       </x:c>
-      <x:c r="F27" s="43" t="n">
+      <x:c r="F27" s="43">
         <x:v>17814</x:v>
       </x:c>
-      <x:c r="G27" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H27" s="43" t="n">
+      <x:c r="G27" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H27" s="43">
         <x:v>17814</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:11">
-      <x:c r="B28" s="34" t="s"/>
-      <x:c r="C28" s="35" t="s"/>
-      <x:c r="D28" s="36" t="s"/>
-      <x:c r="E28" s="37" t="s"/>
-      <x:c r="F28" s="38" t="s"/>
-      <x:c r="G28" s="36" t="s"/>
+    <x:row r="28" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B28" s="34"/>
+      <x:c r="C28" s="35"/>
+      <x:c r="D28" s="36"/>
+      <x:c r="E28" s="37"/>
+      <x:c r="F28" s="38"/>
+      <x:c r="G28" s="36"/>
       <x:c r="H28" s="39" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:11" outlineLevel="1">
-      <x:c r="B29" s="40" t="n">
+    <x:row r="29" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B29" s="40">
         <x:v>1042</x:v>
       </x:c>
       <x:c r="C29" s="41" t="s">
@@ -1602,50 +1600,50 @@
       <x:c r="E29" s="42">
         <x:v>32410</x:v>
       </x:c>
-      <x:c r="F29" s="43" t="n">
+      <x:c r="F29" s="43">
         <x:v>971.7</x:v>
       </x:c>
-      <x:c r="G29" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H29" s="43" t="n">
+      <x:c r="G29" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H29" s="43">
         <x:v>971.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:11" outlineLevel="1">
-      <x:c r="B30" s="40" t="n">
+    <x:row r="30" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B30" s="40">
         <x:v>1142</x:v>
       </x:c>
-      <x:c r="C30" s="41" t="s"/>
+      <x:c r="C30" s="41"/>
       <x:c r="D30" s="42">
         <x:v>34328</x:v>
       </x:c>
       <x:c r="E30" s="42">
         <x:v>34328</x:v>
       </x:c>
-      <x:c r="F30" s="43" t="n">
+      <x:c r="F30" s="43">
         <x:v>3546</x:v>
       </x:c>
-      <x:c r="G30" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H30" s="43" t="n">
+      <x:c r="G30" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H30" s="43">
         <x:v>3546</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:11">
-      <x:c r="B31" s="34" t="s"/>
-      <x:c r="C31" s="35" t="s"/>
-      <x:c r="D31" s="36" t="s"/>
-      <x:c r="E31" s="37" t="s"/>
-      <x:c r="F31" s="38" t="s"/>
-      <x:c r="G31" s="36" t="s"/>
+    <x:row r="31" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B31" s="34"/>
+      <x:c r="C31" s="35"/>
+      <x:c r="D31" s="36"/>
+      <x:c r="E31" s="37"/>
+      <x:c r="F31" s="38"/>
+      <x:c r="G31" s="36"/>
       <x:c r="H31" s="39" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:11" outlineLevel="1">
-      <x:c r="B32" s="40" t="n">
+    <x:row r="32" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B32" s="40">
         <x:v>1079</x:v>
       </x:c>
       <x:c r="C32" s="41" t="s">
@@ -1657,308 +1655,308 @@
       <x:c r="E32" s="42">
         <x:v>32631</x:v>
       </x:c>
-      <x:c r="F32" s="43" t="n">
+      <x:c r="F32" s="43">
         <x:v>4445</x:v>
       </x:c>
-      <x:c r="G32" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H32" s="43" t="n">
+      <x:c r="G32" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H32" s="43">
         <x:v>4445</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:11" outlineLevel="1">
-      <x:c r="B33" s="40" t="n">
+    <x:row r="33" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B33" s="40">
         <x:v>1153</x:v>
       </x:c>
-      <x:c r="C33" s="41" t="s"/>
+      <x:c r="C33" s="41"/>
       <x:c r="D33" s="42">
         <x:v>34440</x:v>
       </x:c>
       <x:c r="E33" s="42">
         <x:v>34440</x:v>
       </x:c>
-      <x:c r="F33" s="43" t="n">
+      <x:c r="F33" s="43">
         <x:v>3860.85</x:v>
       </x:c>
-      <x:c r="G33" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H33" s="43" t="n">
+      <x:c r="G33" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H33" s="43">
         <x:v>3860.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:11" outlineLevel="1">
-      <x:c r="B34" s="40" t="n">
+    <x:row r="34" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B34" s="40">
         <x:v>1253</x:v>
       </x:c>
-      <x:c r="C34" s="41" t="s"/>
+      <x:c r="C34" s="41"/>
       <x:c r="D34" s="42">
         <x:v>34664</x:v>
       </x:c>
       <x:c r="E34" s="42">
         <x:v>34664</x:v>
       </x:c>
-      <x:c r="F34" s="43" t="n">
+      <x:c r="F34" s="43">
         <x:v>4774.85</x:v>
       </x:c>
-      <x:c r="G34" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H34" s="43" t="n">
+      <x:c r="G34" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H34" s="43">
         <x:v>4774.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:11" outlineLevel="1">
-      <x:c r="B35" s="40" t="n">
-        <x:v>1106</x:v>
+    <x:row r="35" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B35" s="40">
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="C35" s="41" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D35" s="42">
+        <x:v>32454</x:v>
+      </x:c>
+      <x:c r="E35" s="42">
+        <x:v>34644</x:v>
+      </x:c>
+      <x:c r="F35" s="43">
+        <x:v>31987</x:v>
+      </x:c>
+      <x:c r="G35" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H35" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B36" s="40">
+        <x:v>1106</x:v>
+      </x:c>
+      <x:c r="C36" s="41"/>
+      <x:c r="D36" s="42">
         <x:v>33870</x:v>
       </x:c>
-      <x:c r="E35" s="42">
+      <x:c r="E36" s="42">
         <x:v>33870</x:v>
       </x:c>
-      <x:c r="F35" s="43" t="n">
+      <x:c r="F36" s="43">
         <x:v>3531.8</x:v>
       </x:c>
-      <x:c r="G35" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H35" s="43" t="n">
+      <x:c r="G36" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H36" s="43">
         <x:v>3531.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:11" outlineLevel="1">
-      <x:c r="B36" s="40" t="n">
-        <x:v>1006</x:v>
-      </x:c>
-      <x:c r="C36" s="41" t="s"/>
-      <x:c r="D36" s="42">
-        <x:v>32454</x:v>
-      </x:c>
-      <x:c r="E36" s="42">
-        <x:v>34644</x:v>
-      </x:c>
-      <x:c r="F36" s="43" t="n">
-        <x:v>31987</x:v>
-      </x:c>
-      <x:c r="G36" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H36" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:11">
-      <x:c r="B37" s="34" t="s"/>
-      <x:c r="C37" s="35" t="s"/>
-      <x:c r="D37" s="36" t="s"/>
-      <x:c r="E37" s="37" t="s"/>
-      <x:c r="F37" s="38" t="s"/>
-      <x:c r="G37" s="36" t="s"/>
+    <x:row r="37" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B37" s="34"/>
+      <x:c r="C37" s="35"/>
+      <x:c r="D37" s="36"/>
+      <x:c r="E37" s="37"/>
+      <x:c r="F37" s="38"/>
+      <x:c r="G37" s="36"/>
       <x:c r="H37" s="39" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:11" outlineLevel="1">
-      <x:c r="B38" s="40" t="n">
-        <x:v>1283</x:v>
+    <x:row r="38" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B38" s="40">
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="C38" s="41" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D38" s="42">
+        <x:v>32638</x:v>
+      </x:c>
+      <x:c r="E38" s="42">
+        <x:v>32637</x:v>
+      </x:c>
+      <x:c r="F38" s="43">
+        <x:v>11164.8</x:v>
+      </x:c>
+      <x:c r="G38" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H38" s="43">
+        <x:v>11164.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B39" s="40">
+        <x:v>1283</x:v>
+      </x:c>
+      <x:c r="C39" s="41"/>
+      <x:c r="D39" s="42">
         <x:v>34698</x:v>
       </x:c>
-      <x:c r="E38" s="42">
+      <x:c r="E39" s="42">
         <x:v>34698</x:v>
       </x:c>
-      <x:c r="F38" s="43" t="n">
+      <x:c r="F39" s="43">
         <x:v>7134</x:v>
       </x:c>
-      <x:c r="G38" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H38" s="43" t="n">
+      <x:c r="G39" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H39" s="43">
         <x:v>7134</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:11" outlineLevel="1">
-      <x:c r="B39" s="40" t="n">
-        <x:v>1083</x:v>
-      </x:c>
-      <x:c r="C39" s="41" t="s"/>
-      <x:c r="D39" s="42">
-        <x:v>32638</x:v>
-      </x:c>
-      <x:c r="E39" s="42">
-        <x:v>32637</x:v>
-      </x:c>
-      <x:c r="F39" s="43" t="n">
-        <x:v>11164.8</x:v>
-      </x:c>
-      <x:c r="G39" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H39" s="43" t="n">
-        <x:v>11164.8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:11" outlineLevel="1">
-      <x:c r="B40" s="40" t="n">
-        <x:v>1061</x:v>
+    <x:row r="40" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B40" s="40">
+        <x:v>1012</x:v>
       </x:c>
       <x:c r="C40" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D40" s="42">
-        <x:v>32571</x:v>
+        <x:v>32283</x:v>
       </x:c>
       <x:c r="E40" s="42">
-        <x:v>32570</x:v>
-      </x:c>
-      <x:c r="F40" s="43" t="n">
-        <x:v>24277.3</x:v>
-      </x:c>
-      <x:c r="G40" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H40" s="43" t="n">
-        <x:v>24277.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:11" outlineLevel="1">
-      <x:c r="B41" s="40" t="n">
+        <x:v>32282</x:v>
+      </x:c>
+      <x:c r="F40" s="43">
+        <x:v>5201</x:v>
+      </x:c>
+      <x:c r="G40" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H40" s="43">
+        <x:v>5201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B41" s="40">
         <x:v>1057</x:v>
       </x:c>
-      <x:c r="C41" s="41" t="s"/>
+      <x:c r="C41" s="41"/>
       <x:c r="D41" s="42">
         <x:v>32558</x:v>
       </x:c>
       <x:c r="E41" s="42">
         <x:v>32557</x:v>
       </x:c>
-      <x:c r="F41" s="43" t="n">
+      <x:c r="F41" s="43">
         <x:v>1975</x:v>
       </x:c>
-      <x:c r="G41" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H41" s="43" t="n">
+      <x:c r="G41" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H41" s="43">
         <x:v>1975</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:11" outlineLevel="1">
-      <x:c r="B42" s="40" t="n">
-        <x:v>1212</x:v>
-      </x:c>
-      <x:c r="C42" s="41" t="s"/>
+    <x:row r="42" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B42" s="40">
+        <x:v>1061</x:v>
+      </x:c>
+      <x:c r="C42" s="41"/>
       <x:c r="D42" s="42">
-        <x:v>34652</x:v>
+        <x:v>32571</x:v>
       </x:c>
       <x:c r="E42" s="42">
-        <x:v>34652</x:v>
-      </x:c>
-      <x:c r="F42" s="43" t="n">
-        <x:v>3975.75</x:v>
-      </x:c>
-      <x:c r="G42" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H42" s="43" t="n">
-        <x:v>3975.75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:11" outlineLevel="1">
-      <x:c r="B43" s="40" t="n">
+        <x:v>32570</x:v>
+      </x:c>
+      <x:c r="F42" s="43">
+        <x:v>24277.3</x:v>
+      </x:c>
+      <x:c r="G42" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H42" s="43">
+        <x:v>24277.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B43" s="40">
         <x:v>1091</x:v>
       </x:c>
-      <x:c r="C43" s="41" t="s"/>
+      <x:c r="C43" s="41"/>
       <x:c r="D43" s="42">
         <x:v>32660</x:v>
       </x:c>
       <x:c r="E43" s="42">
         <x:v>32656</x:v>
       </x:c>
-      <x:c r="F43" s="43" t="n">
+      <x:c r="F43" s="43">
         <x:v>1950</x:v>
       </x:c>
-      <x:c r="G43" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H43" s="43" t="n">
+      <x:c r="G43" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H43" s="43">
         <x:v>1950</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:11" outlineLevel="1">
-      <x:c r="B44" s="40" t="n">
+    <x:row r="44" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B44" s="40">
+        <x:v>1161</x:v>
+      </x:c>
+      <x:c r="C44" s="41"/>
+      <x:c r="D44" s="42">
+        <x:v>34489</x:v>
+      </x:c>
+      <x:c r="E44" s="42">
+        <x:v>34489</x:v>
+      </x:c>
+      <x:c r="F44" s="43">
+        <x:v>102453.6</x:v>
+      </x:c>
+      <x:c r="G44" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H44" s="43">
+        <x:v>102453.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B45" s="40">
+        <x:v>1212</x:v>
+      </x:c>
+      <x:c r="C45" s="41"/>
+      <x:c r="D45" s="42">
+        <x:v>34652</x:v>
+      </x:c>
+      <x:c r="E45" s="42">
+        <x:v>34652</x:v>
+      </x:c>
+      <x:c r="F45" s="43">
+        <x:v>3975.75</x:v>
+      </x:c>
+      <x:c r="G45" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H45" s="43">
+        <x:v>3975.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B46" s="40">
         <x:v>1261</x:v>
       </x:c>
-      <x:c r="C44" s="41" t="s"/>
-      <x:c r="D44" s="42">
+      <x:c r="C46" s="41"/>
+      <x:c r="D46" s="42">
         <x:v>34679</x:v>
       </x:c>
-      <x:c r="E44" s="42">
+      <x:c r="E46" s="42">
         <x:v>34679</x:v>
       </x:c>
-      <x:c r="F44" s="43" t="n">
+      <x:c r="F46" s="43">
         <x:v>1999</x:v>
       </x:c>
-      <x:c r="G44" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H44" s="43" t="n">
+      <x:c r="G46" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H46" s="43">
         <x:v>1999</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:11" outlineLevel="1">
-      <x:c r="B45" s="40" t="n">
-        <x:v>1012</x:v>
-      </x:c>
-      <x:c r="C45" s="41" t="s"/>
-      <x:c r="D45" s="42">
-        <x:v>32283</x:v>
-      </x:c>
-      <x:c r="E45" s="42">
-        <x:v>32282</x:v>
-      </x:c>
-      <x:c r="F45" s="43" t="n">
-        <x:v>5201</x:v>
-      </x:c>
-      <x:c r="G45" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H45" s="43" t="n">
-        <x:v>5201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:11" outlineLevel="1">
-      <x:c r="B46" s="40" t="n">
-        <x:v>1161</x:v>
-      </x:c>
-      <x:c r="C46" s="41" t="s"/>
-      <x:c r="D46" s="42">
-        <x:v>34489</x:v>
-      </x:c>
-      <x:c r="E46" s="42">
-        <x:v>34489</x:v>
-      </x:c>
-      <x:c r="F46" s="43" t="n">
-        <x:v>102453.6</x:v>
-      </x:c>
-      <x:c r="G46" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H46" s="43" t="n">
-        <x:v>102453.6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:11" outlineLevel="1">
-      <x:c r="B47" s="40" t="n">
+    <x:row r="47" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B47" s="40">
         <x:v>1168</x:v>
       </x:c>
       <x:c r="C47" s="41" t="s">
@@ -1970,18 +1968,18 @@
       <x:c r="E47" s="42">
         <x:v>34519</x:v>
       </x:c>
-      <x:c r="F47" s="43" t="n">
+      <x:c r="F47" s="43">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="G47" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H47" s="43" t="n">
+      <x:c r="G47" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H47" s="43">
         <x:v>104</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:11" outlineLevel="1">
-      <x:c r="B48" s="40" t="n">
+    <x:row r="48" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B48" s="40">
         <x:v>1148</x:v>
       </x:c>
       <x:c r="C48" s="41" t="s">
@@ -1993,29 +1991,29 @@
       <x:c r="E48" s="42">
         <x:v>34396</x:v>
       </x:c>
-      <x:c r="F48" s="43" t="n">
+      <x:c r="F48" s="43">
         <x:v>5011</x:v>
       </x:c>
-      <x:c r="G48" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H48" s="43" t="n">
+      <x:c r="G48" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H48" s="43">
         <x:v>5011</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:11">
-      <x:c r="B49" s="34" t="s"/>
-      <x:c r="C49" s="35" t="s"/>
-      <x:c r="D49" s="36" t="s"/>
-      <x:c r="E49" s="37" t="s"/>
-      <x:c r="F49" s="38" t="s"/>
-      <x:c r="G49" s="36" t="s"/>
+    <x:row r="49" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B49" s="34"/>
+      <x:c r="C49" s="35"/>
+      <x:c r="D49" s="36"/>
+      <x:c r="E49" s="37"/>
+      <x:c r="F49" s="38"/>
+      <x:c r="G49" s="36"/>
       <x:c r="H49" s="39" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:11" outlineLevel="1">
-      <x:c r="B50" s="40" t="n">
+    <x:row r="50" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B50" s="40">
         <x:v>1018</x:v>
       </x:c>
       <x:c r="C50" s="41" t="s">
@@ -2027,178 +2025,178 @@
       <x:c r="E50" s="42">
         <x:v>32312</x:v>
       </x:c>
-      <x:c r="F50" s="43" t="n">
+      <x:c r="F50" s="43">
         <x:v>5256</x:v>
       </x:c>
-      <x:c r="G50" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H50" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:11" outlineLevel="1">
-      <x:c r="B51" s="40" t="n">
+      <x:c r="G50" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H50" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B51" s="40">
         <x:v>1118</x:v>
       </x:c>
-      <x:c r="C51" s="41" t="s"/>
+      <x:c r="C51" s="41"/>
       <x:c r="D51" s="42">
         <x:v>34082</x:v>
       </x:c>
       <x:c r="E51" s="42">
         <x:v>34082</x:v>
       </x:c>
-      <x:c r="F51" s="43" t="n">
+      <x:c r="F51" s="43">
         <x:v>21614</x:v>
       </x:c>
-      <x:c r="G51" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H51" s="43" t="n">
+      <x:c r="G51" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H51" s="43">
         <x:v>21614</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:11" outlineLevel="1">
-      <x:c r="B52" s="40" t="n">
-        <x:v>1162</x:v>
+    <x:row r="52" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B52" s="40">
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="C52" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D52" s="42">
+        <x:v>32356</x:v>
+      </x:c>
+      <x:c r="E52" s="42">
+        <x:v>32352</x:v>
+      </x:c>
+      <x:c r="F52" s="43">
+        <x:v>12685</x:v>
+      </x:c>
+      <x:c r="G52" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H52" s="43">
+        <x:v>12685</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B53" s="40">
+        <x:v>1058</x:v>
+      </x:c>
+      <x:c r="C53" s="41"/>
+      <x:c r="D53" s="42">
+        <x:v>32561</x:v>
+      </x:c>
+      <x:c r="E53" s="42">
+        <x:v>32560</x:v>
+      </x:c>
+      <x:c r="F53" s="43">
+        <x:v>12736</x:v>
+      </x:c>
+      <x:c r="G53" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H53" s="43">
+        <x:v>12736</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B54" s="40">
+        <x:v>1062</x:v>
+      </x:c>
+      <x:c r="C54" s="41"/>
+      <x:c r="D54" s="42">
+        <x:v>32576</x:v>
+      </x:c>
+      <x:c r="E54" s="42">
+        <x:v>32575</x:v>
+      </x:c>
+      <x:c r="F54" s="43">
+        <x:v>18320</x:v>
+      </x:c>
+      <x:c r="G54" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H54" s="43">
+        <x:v>18320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B55" s="40">
+        <x:v>1064</x:v>
+      </x:c>
+      <x:c r="C55" s="41"/>
+      <x:c r="D55" s="42">
+        <x:v>32592</x:v>
+      </x:c>
+      <x:c r="E55" s="42">
+        <x:v>32591</x:v>
+      </x:c>
+      <x:c r="F55" s="43">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="G55" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H55" s="43">
+        <x:v>395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B56" s="40">
+        <x:v>1131</x:v>
+      </x:c>
+      <x:c r="C56" s="41"/>
+      <x:c r="D56" s="42">
+        <x:v>34274</x:v>
+      </x:c>
+      <x:c r="E56" s="42">
+        <x:v>34274</x:v>
+      </x:c>
+      <x:c r="F56" s="43">
+        <x:v>11989.2</x:v>
+      </x:c>
+      <x:c r="G56" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H56" s="43">
+        <x:v>11989.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B57" s="40">
+        <x:v>1162</x:v>
+      </x:c>
+      <x:c r="C57" s="41"/>
+      <x:c r="D57" s="42">
         <x:v>34494</x:v>
       </x:c>
-      <x:c r="E52" s="42">
+      <x:c r="E57" s="42">
         <x:v>34494</x:v>
       </x:c>
-      <x:c r="F52" s="43" t="n">
+      <x:c r="F57" s="43">
         <x:v>3153</x:v>
       </x:c>
-      <x:c r="G52" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H52" s="43" t="n">
+      <x:c r="G57" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H57" s="43">
         <x:v>3153</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:11" outlineLevel="1">
-      <x:c r="B53" s="40" t="n">
-        <x:v>1031</x:v>
-      </x:c>
-      <x:c r="C53" s="41" t="s"/>
-      <x:c r="D53" s="42">
-        <x:v>32356</x:v>
-      </x:c>
-      <x:c r="E53" s="42">
-        <x:v>32352</x:v>
-      </x:c>
-      <x:c r="F53" s="43" t="n">
-        <x:v>12685</x:v>
-      </x:c>
-      <x:c r="G53" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H53" s="43" t="n">
-        <x:v>12685</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:11" outlineLevel="1">
-      <x:c r="B54" s="40" t="n">
-        <x:v>1064</x:v>
-      </x:c>
-      <x:c r="C54" s="41" t="s"/>
-      <x:c r="D54" s="42">
-        <x:v>32592</x:v>
-      </x:c>
-      <x:c r="E54" s="42">
-        <x:v>32591</x:v>
-      </x:c>
-      <x:c r="F54" s="43" t="n">
-        <x:v>395</x:v>
-      </x:c>
-      <x:c r="G54" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H54" s="43" t="n">
-        <x:v>395</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:11" outlineLevel="1">
-      <x:c r="B55" s="40" t="n">
-        <x:v>1131</x:v>
-      </x:c>
-      <x:c r="C55" s="41" t="s"/>
-      <x:c r="D55" s="42">
-        <x:v>34274</x:v>
-      </x:c>
-      <x:c r="E55" s="42">
-        <x:v>34274</x:v>
-      </x:c>
-      <x:c r="F55" s="43" t="n">
-        <x:v>11989.2</x:v>
-      </x:c>
-      <x:c r="G55" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H55" s="43" t="n">
-        <x:v>11989.2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:11" outlineLevel="1">
-      <x:c r="B56" s="40" t="n">
-        <x:v>1058</x:v>
-      </x:c>
-      <x:c r="C56" s="41" t="s"/>
-      <x:c r="D56" s="42">
-        <x:v>32561</x:v>
-      </x:c>
-      <x:c r="E56" s="42">
-        <x:v>32560</x:v>
-      </x:c>
-      <x:c r="F56" s="43" t="n">
-        <x:v>12736</x:v>
-      </x:c>
-      <x:c r="G56" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H56" s="43" t="n">
-        <x:v>12736</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:11" outlineLevel="1">
-      <x:c r="B57" s="40" t="n">
-        <x:v>1062</x:v>
-      </x:c>
-      <x:c r="C57" s="41" t="s"/>
-      <x:c r="D57" s="42">
-        <x:v>32576</x:v>
-      </x:c>
-      <x:c r="E57" s="42">
-        <x:v>32575</x:v>
-      </x:c>
-      <x:c r="F57" s="43" t="n">
-        <x:v>18320</x:v>
-      </x:c>
-      <x:c r="G57" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H57" s="43" t="n">
-        <x:v>18320</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:11">
-      <x:c r="B58" s="34" t="s"/>
-      <x:c r="C58" s="35" t="s"/>
-      <x:c r="D58" s="36" t="s"/>
-      <x:c r="E58" s="37" t="s"/>
-      <x:c r="F58" s="38" t="s"/>
-      <x:c r="G58" s="36" t="s"/>
+    <x:row r="58" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B58" s="34"/>
+      <x:c r="C58" s="35"/>
+      <x:c r="D58" s="36"/>
+      <x:c r="E58" s="37"/>
+      <x:c r="F58" s="38"/>
+      <x:c r="G58" s="36"/>
       <x:c r="H58" s="39" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:11" outlineLevel="1">
-      <x:c r="B59" s="40" t="n">
+    <x:row r="59" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B59" s="40">
         <x:v>1066</x:v>
       </x:c>
       <x:c r="C59" s="41" t="s">
@@ -2210,71 +2208,71 @@
       <x:c r="E59" s="42">
         <x:v>32593</x:v>
       </x:c>
-      <x:c r="F59" s="43" t="n">
+      <x:c r="F59" s="43">
         <x:v>19812</x:v>
       </x:c>
-      <x:c r="G59" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H59" s="43" t="n">
+      <x:c r="G59" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H59" s="43">
         <x:v>19812</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:11" outlineLevel="1">
-      <x:c r="B60" s="40" t="n">
+    <x:row r="60" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B60" s="40">
+        <x:v>1166</x:v>
+      </x:c>
+      <x:c r="C60" s="41"/>
+      <x:c r="D60" s="42">
+        <x:v>34516</x:v>
+      </x:c>
+      <x:c r="E60" s="42">
+        <x:v>34516</x:v>
+      </x:c>
+      <x:c r="F60" s="43">
+        <x:v>28862</x:v>
+      </x:c>
+      <x:c r="G60" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H60" s="43">
+        <x:v>28862</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B61" s="40">
         <x:v>1205</x:v>
       </x:c>
-      <x:c r="C60" s="41" t="s"/>
-      <x:c r="D60" s="42">
+      <x:c r="C61" s="41"/>
+      <x:c r="D61" s="42">
         <x:v>34628</x:v>
       </x:c>
-      <x:c r="E60" s="42">
+      <x:c r="E61" s="42">
         <x:v>34628</x:v>
       </x:c>
-      <x:c r="F60" s="43" t="n">
+      <x:c r="F61" s="43">
         <x:v>4029.55</x:v>
       </x:c>
-      <x:c r="G60" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H60" s="43" t="n">
+      <x:c r="G61" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H61" s="43">
         <x:v>4029.55</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:11" outlineLevel="1">
-      <x:c r="B61" s="40" t="n">
-        <x:v>1166</x:v>
-      </x:c>
-      <x:c r="C61" s="41" t="s"/>
-      <x:c r="D61" s="42">
-        <x:v>34516</x:v>
-      </x:c>
-      <x:c r="E61" s="42">
-        <x:v>34516</x:v>
-      </x:c>
-      <x:c r="F61" s="43" t="n">
-        <x:v>28862</x:v>
-      </x:c>
-      <x:c r="G61" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H61" s="43" t="n">
-        <x:v>28862</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:11">
-      <x:c r="B62" s="34" t="s"/>
-      <x:c r="C62" s="35" t="s"/>
-      <x:c r="D62" s="36" t="s"/>
-      <x:c r="E62" s="37" t="s"/>
-      <x:c r="F62" s="38" t="s"/>
-      <x:c r="G62" s="36" t="s"/>
+    <x:row r="62" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B62" s="34"/>
+      <x:c r="C62" s="35"/>
+      <x:c r="D62" s="36"/>
+      <x:c r="E62" s="37"/>
+      <x:c r="F62" s="38"/>
+      <x:c r="G62" s="36"/>
       <x:c r="H62" s="39" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:11" outlineLevel="1">
-      <x:c r="B63" s="40" t="n">
+    <x:row r="63" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B63" s="40">
         <x:v>1104</x:v>
       </x:c>
       <x:c r="C63" s="41" t="s">
@@ -2286,18 +2284,18 @@
       <x:c r="E63" s="42">
         <x:v>33803</x:v>
       </x:c>
-      <x:c r="F63" s="43" t="n">
+      <x:c r="F63" s="43">
         <x:v>51673.15</x:v>
       </x:c>
-      <x:c r="G63" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H63" s="43" t="n">
+      <x:c r="G63" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H63" s="43">
         <x:v>51673.15</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:11" outlineLevel="1">
-      <x:c r="B64" s="40" t="n">
+    <x:row r="64" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B64" s="40">
         <x:v>1292</x:v>
       </x:c>
       <x:c r="C64" s="41" t="s">
@@ -2309,29 +2307,29 @@
       <x:c r="E64" s="42">
         <x:v>34700</x:v>
       </x:c>
-      <x:c r="F64" s="43" t="n">
+      <x:c r="F64" s="43">
         <x:v>7986.9</x:v>
       </x:c>
-      <x:c r="G64" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H64" s="43" t="n">
+      <x:c r="G64" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H64" s="43">
         <x:v>7986.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:11">
-      <x:c r="B65" s="34" t="s"/>
-      <x:c r="C65" s="35" t="s"/>
-      <x:c r="D65" s="36" t="s"/>
-      <x:c r="E65" s="37" t="s"/>
-      <x:c r="F65" s="38" t="s"/>
-      <x:c r="G65" s="36" t="s"/>
+    <x:row r="65" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B65" s="34"/>
+      <x:c r="C65" s="35"/>
+      <x:c r="D65" s="36"/>
+      <x:c r="E65" s="37"/>
+      <x:c r="F65" s="38"/>
+      <x:c r="G65" s="36"/>
       <x:c r="H65" s="39" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:11" outlineLevel="1">
-      <x:c r="B66" s="40" t="n">
+    <x:row r="66" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B66" s="40">
         <x:v>1134</x:v>
       </x:c>
       <x:c r="C66" s="41" t="s">
@@ -2343,29 +2341,29 @@
       <x:c r="E66" s="42">
         <x:v>34287</x:v>
       </x:c>
-      <x:c r="F66" s="43" t="n">
+      <x:c r="F66" s="43">
         <x:v>6675.95</x:v>
       </x:c>
-      <x:c r="G66" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H66" s="43" t="n">
+      <x:c r="G66" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H66" s="43">
         <x:v>6675.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:11">
-      <x:c r="B67" s="34" t="s"/>
-      <x:c r="C67" s="35" t="s"/>
-      <x:c r="D67" s="36" t="s"/>
-      <x:c r="E67" s="37" t="s"/>
-      <x:c r="F67" s="38" t="s"/>
-      <x:c r="G67" s="36" t="s"/>
+    <x:row r="67" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B67" s="34"/>
+      <x:c r="C67" s="35"/>
+      <x:c r="D67" s="36"/>
+      <x:c r="E67" s="37"/>
+      <x:c r="F67" s="38"/>
+      <x:c r="G67" s="36"/>
       <x:c r="H67" s="39" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:11" outlineLevel="1">
-      <x:c r="B68" s="40" t="n">
+    <x:row r="68" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B68" s="40">
         <x:v>1004</x:v>
       </x:c>
       <x:c r="C68" s="41" t="s">
@@ -2377,18 +2375,18 @@
       <x:c r="E68" s="42">
         <x:v>32250</x:v>
       </x:c>
-      <x:c r="F68" s="43" t="n">
+      <x:c r="F68" s="43">
         <x:v>7885</x:v>
       </x:c>
-      <x:c r="G68" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H68" s="43" t="n">
+      <x:c r="G68" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H68" s="43">
         <x:v>7885</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:11" outlineLevel="1">
-      <x:c r="B69" s="40" t="n">
+    <x:row r="69" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B69" s="40">
         <x:v>1020</x:v>
       </x:c>
       <x:c r="C69" s="41" t="s">
@@ -2400,94 +2398,94 @@
       <x:c r="E69" s="42">
         <x:v>32318</x:v>
       </x:c>
-      <x:c r="F69" s="43" t="n">
+      <x:c r="F69" s="43">
         <x:v>9955</x:v>
       </x:c>
-      <x:c r="G69" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H69" s="43" t="n">
+      <x:c r="G69" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H69" s="43">
         <x:v>9955</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:11" outlineLevel="1">
-      <x:c r="B70" s="40" t="n">
+    <x:row r="70" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B70" s="40">
         <x:v>1120</x:v>
       </x:c>
-      <x:c r="C70" s="41" t="s"/>
+      <x:c r="C70" s="41"/>
       <x:c r="D70" s="42">
         <x:v>34114</x:v>
       </x:c>
       <x:c r="E70" s="42">
         <x:v>34114</x:v>
       </x:c>
-      <x:c r="F70" s="43" t="n">
+      <x:c r="F70" s="43">
         <x:v>784.9</x:v>
       </x:c>
-      <x:c r="G70" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H70" s="43" t="n">
+      <x:c r="G70" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H70" s="43">
         <x:v>784.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:11" outlineLevel="1">
-      <x:c r="B71" s="40" t="n">
-        <x:v>1295</x:v>
+    <x:row r="71" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B71" s="40">
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="C71" s="41" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D71" s="42">
+        <x:v>32665</x:v>
+      </x:c>
+      <x:c r="E71" s="42">
+        <x:v>32664</x:v>
+      </x:c>
+      <x:c r="F71" s="43">
+        <x:v>7531.75</x:v>
+      </x:c>
+      <x:c r="G71" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H71" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B72" s="40">
+        <x:v>1295</x:v>
+      </x:c>
+      <x:c r="C72" s="41"/>
+      <x:c r="D72" s="42">
         <x:v>34705</x:v>
       </x:c>
-      <x:c r="E71" s="42">
+      <x:c r="E72" s="42">
         <x:v>34705</x:v>
       </x:c>
-      <x:c r="F71" s="43" t="n">
+      <x:c r="F72" s="43">
         <x:v>17917</x:v>
       </x:c>
-      <x:c r="G71" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H71" s="43" t="n">
+      <x:c r="G72" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H72" s="43">
         <x:v>17917</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:11" outlineLevel="1">
-      <x:c r="B72" s="40" t="n">
-        <x:v>1095</x:v>
-      </x:c>
-      <x:c r="C72" s="41" t="s"/>
-      <x:c r="D72" s="42">
-        <x:v>32665</x:v>
-      </x:c>
-      <x:c r="E72" s="42">
-        <x:v>32664</x:v>
-      </x:c>
-      <x:c r="F72" s="43" t="n">
-        <x:v>7531.75</x:v>
-      </x:c>
-      <x:c r="G72" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H72" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:11">
-      <x:c r="B73" s="34" t="s"/>
-      <x:c r="C73" s="35" t="s"/>
-      <x:c r="D73" s="36" t="s"/>
-      <x:c r="E73" s="37" t="s"/>
-      <x:c r="F73" s="38" t="s"/>
-      <x:c r="G73" s="36" t="s"/>
+    <x:row r="73" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B73" s="34"/>
+      <x:c r="C73" s="35"/>
+      <x:c r="D73" s="36"/>
+      <x:c r="E73" s="37"/>
+      <x:c r="F73" s="38"/>
+      <x:c r="G73" s="36"/>
       <x:c r="H73" s="39" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:11" outlineLevel="1">
-      <x:c r="B74" s="40" t="n">
+    <x:row r="74" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B74" s="40">
         <x:v>1260</x:v>
       </x:c>
       <x:c r="C74" s="41" t="s">
@@ -2499,18 +2497,18 @@
       <x:c r="E74" s="42">
         <x:v>34678</x:v>
       </x:c>
-      <x:c r="F74" s="43" t="n">
+      <x:c r="F74" s="43">
         <x:v>2577.85</x:v>
       </x:c>
-      <x:c r="G74" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H74" s="43" t="n">
+      <x:c r="G74" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H74" s="43">
         <x:v>2577.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:11" outlineLevel="1">
-      <x:c r="B75" s="40" t="n">
+    <x:row r="75" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B75" s="40">
         <x:v>1078</x:v>
       </x:c>
       <x:c r="C75" s="41" t="s">
@@ -2522,29 +2520,29 @@
       <x:c r="E75" s="42">
         <x:v>32629</x:v>
       </x:c>
-      <x:c r="F75" s="43" t="n">
+      <x:c r="F75" s="43">
         <x:v>79116</x:v>
       </x:c>
-      <x:c r="G75" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H75" s="43" t="n">
+      <x:c r="G75" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H75" s="43">
         <x:v>79116</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:11">
-      <x:c r="B76" s="34" t="s"/>
-      <x:c r="C76" s="35" t="s"/>
-      <x:c r="D76" s="36" t="s"/>
-      <x:c r="E76" s="37" t="s"/>
-      <x:c r="F76" s="38" t="s"/>
-      <x:c r="G76" s="36" t="s"/>
+    <x:row r="76" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B76" s="34"/>
+      <x:c r="C76" s="35"/>
+      <x:c r="D76" s="36"/>
+      <x:c r="E76" s="37"/>
+      <x:c r="F76" s="38"/>
+      <x:c r="G76" s="36"/>
       <x:c r="H76" s="39" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:11" outlineLevel="1">
-      <x:c r="B77" s="40" t="n">
+    <x:row r="77" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B77" s="40">
         <x:v>1046</x:v>
       </x:c>
       <x:c r="C77" s="41" t="s">
@@ -2556,39 +2554,39 @@
       <x:c r="E77" s="42">
         <x:v>32459</x:v>
       </x:c>
-      <x:c r="F77" s="43" t="n">
+      <x:c r="F77" s="43">
         <x:v>766.8</x:v>
       </x:c>
-      <x:c r="G77" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H77" s="43" t="n">
+      <x:c r="G77" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H77" s="43">
         <x:v>766.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:11" outlineLevel="1">
-      <x:c r="B78" s="40" t="n">
+    <x:row r="78" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B78" s="40">
         <x:v>1146</x:v>
       </x:c>
-      <x:c r="C78" s="41" t="s"/>
+      <x:c r="C78" s="41"/>
       <x:c r="D78" s="42">
         <x:v>34378</x:v>
       </x:c>
       <x:c r="E78" s="42">
         <x:v>34378</x:v>
       </x:c>
-      <x:c r="F78" s="43" t="n">
+      <x:c r="F78" s="43">
         <x:v>15052</x:v>
       </x:c>
-      <x:c r="G78" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H78" s="43" t="n">
+      <x:c r="G78" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H78" s="43">
         <x:v>15052</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:11" outlineLevel="1">
-      <x:c r="B79" s="40" t="n">
+    <x:row r="79" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B79" s="40">
         <x:v>1098</x:v>
       </x:c>
       <x:c r="C79" s="41" t="s">
@@ -2600,71 +2598,71 @@
       <x:c r="E79" s="42">
         <x:v>32673</x:v>
       </x:c>
-      <x:c r="F79" s="43" t="n">
+      <x:c r="F79" s="43">
         <x:v>472.9</x:v>
       </x:c>
-      <x:c r="G79" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H79" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:11" outlineLevel="1">
-      <x:c r="B80" s="40" t="n">
+      <x:c r="G79" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H79" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B80" s="40">
+        <x:v>1198</x:v>
+      </x:c>
+      <x:c r="C80" s="41"/>
+      <x:c r="D80" s="42">
+        <x:v>34591</x:v>
+      </x:c>
+      <x:c r="E80" s="42">
+        <x:v>34591</x:v>
+      </x:c>
+      <x:c r="F80" s="43">
+        <x:v>72089.9</x:v>
+      </x:c>
+      <x:c r="G80" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H80" s="43">
+        <x:v>72089.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B81" s="40">
         <x:v>1298</x:v>
       </x:c>
-      <x:c r="C80" s="41" t="s"/>
-      <x:c r="D80" s="42">
+      <x:c r="C81" s="41"/>
+      <x:c r="D81" s="42">
         <x:v>34708</x:v>
       </x:c>
-      <x:c r="E80" s="42">
+      <x:c r="E81" s="42">
         <x:v>34708</x:v>
       </x:c>
-      <x:c r="F80" s="43" t="n">
+      <x:c r="F81" s="43">
         <x:v>9897</x:v>
       </x:c>
-      <x:c r="G80" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H80" s="43" t="n">
+      <x:c r="G81" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H81" s="43">
         <x:v>9897</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:11" outlineLevel="1">
-      <x:c r="B81" s="40" t="n">
-        <x:v>1198</x:v>
-      </x:c>
-      <x:c r="C81" s="41" t="s"/>
-      <x:c r="D81" s="42">
-        <x:v>34591</x:v>
-      </x:c>
-      <x:c r="E81" s="42">
-        <x:v>34591</x:v>
-      </x:c>
-      <x:c r="F81" s="43" t="n">
-        <x:v>72089.9</x:v>
-      </x:c>
-      <x:c r="G81" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H81" s="43" t="n">
-        <x:v>72089.9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:11">
-      <x:c r="B82" s="34" t="s"/>
-      <x:c r="C82" s="35" t="s"/>
-      <x:c r="D82" s="36" t="s"/>
-      <x:c r="E82" s="37" t="s"/>
-      <x:c r="F82" s="38" t="s"/>
-      <x:c r="G82" s="36" t="s"/>
+    <x:row r="82" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B82" s="34"/>
+      <x:c r="C82" s="35"/>
+      <x:c r="D82" s="36"/>
+      <x:c r="E82" s="37"/>
+      <x:c r="F82" s="38"/>
+      <x:c r="G82" s="36"/>
       <x:c r="H82" s="39" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:11" outlineLevel="1">
-      <x:c r="B83" s="40" t="n">
+    <x:row r="83" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B83" s="40">
         <x:v>1130</x:v>
       </x:c>
       <x:c r="C83" s="41" t="s">
@@ -2676,29 +2674,29 @@
       <x:c r="E83" s="42">
         <x:v>34268</x:v>
       </x:c>
-      <x:c r="F83" s="43" t="n">
+      <x:c r="F83" s="43">
         <x:v>6300</x:v>
       </x:c>
-      <x:c r="G83" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H83" s="43" t="n">
+      <x:c r="G83" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H83" s="43">
         <x:v>6300</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:11">
-      <x:c r="B84" s="34" t="s"/>
-      <x:c r="C84" s="35" t="s"/>
-      <x:c r="D84" s="36" t="s"/>
-      <x:c r="E84" s="37" t="s"/>
-      <x:c r="F84" s="38" t="s"/>
-      <x:c r="G84" s="36" t="s"/>
+    <x:row r="84" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B84" s="34"/>
+      <x:c r="C84" s="35"/>
+      <x:c r="D84" s="36"/>
+      <x:c r="E84" s="37"/>
+      <x:c r="F84" s="38"/>
+      <x:c r="G84" s="36"/>
       <x:c r="H84" s="39" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:11" outlineLevel="1">
-      <x:c r="B85" s="40" t="n">
+    <x:row r="85" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B85" s="40">
         <x:v>1048</x:v>
       </x:c>
       <x:c r="C85" s="41" t="s">
@@ -2710,50 +2708,50 @@
       <x:c r="E85" s="42">
         <x:v>32479</x:v>
       </x:c>
-      <x:c r="F85" s="43" t="n">
+      <x:c r="F85" s="43">
         <x:v>7346</x:v>
       </x:c>
-      <x:c r="G85" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H85" s="43" t="n">
+      <x:c r="G85" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H85" s="43">
         <x:v>7346</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:11" outlineLevel="1">
-      <x:c r="B86" s="40" t="n">
+    <x:row r="86" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B86" s="40">
         <x:v>1054</x:v>
       </x:c>
-      <x:c r="C86" s="41" t="s"/>
+      <x:c r="C86" s="41"/>
       <x:c r="D86" s="42">
         <x:v>32540</x:v>
       </x:c>
       <x:c r="E86" s="42">
         <x:v>32536</x:v>
       </x:c>
-      <x:c r="F86" s="43" t="n">
+      <x:c r="F86" s="43">
         <x:v>14188</x:v>
       </x:c>
-      <x:c r="G86" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H86" s="43" t="n">
+      <x:c r="G86" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H86" s="43">
         <x:v>14188</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:11">
-      <x:c r="B87" s="34" t="s"/>
-      <x:c r="C87" s="35" t="s"/>
-      <x:c r="D87" s="36" t="s"/>
-      <x:c r="E87" s="37" t="s"/>
-      <x:c r="F87" s="38" t="s"/>
-      <x:c r="G87" s="36" t="s"/>
+    <x:row r="87" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B87" s="34"/>
+      <x:c r="C87" s="35"/>
+      <x:c r="D87" s="36"/>
+      <x:c r="E87" s="37"/>
+      <x:c r="F87" s="38"/>
+      <x:c r="G87" s="36"/>
       <x:c r="H87" s="39" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:11" outlineLevel="1">
-      <x:c r="B88" s="40" t="n">
+    <x:row r="88" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B88" s="40">
         <x:v>1086</x:v>
       </x:c>
       <x:c r="C88" s="41" t="s">
@@ -2765,83 +2763,83 @@
       <x:c r="E88" s="42">
         <x:v>32646</x:v>
       </x:c>
-      <x:c r="F88" s="43" t="n">
+      <x:c r="F88" s="43">
         <x:v>14049.95</x:v>
       </x:c>
-      <x:c r="G88" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H88" s="43" t="n">
+      <x:c r="G88" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H88" s="43">
         <x:v>14049.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:11" outlineLevel="1">
-      <x:c r="B89" s="40" t="n">
-        <x:v>1209</x:v>
+    <x:row r="89" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B89" s="40">
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="C89" s="41" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D89" s="42">
-        <x:v>34650</x:v>
+        <x:v>32275</x:v>
       </x:c>
       <x:c r="E89" s="42">
-        <x:v>34650</x:v>
-      </x:c>
-      <x:c r="F89" s="43" t="n">
-        <x:v>20711.9</x:v>
-      </x:c>
-      <x:c r="G89" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H89" s="43" t="n">
-        <x:v>20711.9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:11" outlineLevel="1">
-      <x:c r="B90" s="40" t="n">
+        <x:v>32274</x:v>
+      </x:c>
+      <x:c r="F89" s="43">
+        <x:v>5587</x:v>
+      </x:c>
+      <x:c r="G89" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H89" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B90" s="40">
         <x:v>1109</x:v>
       </x:c>
-      <x:c r="C90" s="41" t="s"/>
+      <x:c r="C90" s="41"/>
       <x:c r="D90" s="42">
         <x:v>33921</x:v>
       </x:c>
       <x:c r="E90" s="42">
         <x:v>33921</x:v>
       </x:c>
-      <x:c r="F90" s="43" t="n">
+      <x:c r="F90" s="43">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="G90" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H90" s="43" t="n">
+      <x:c r="G90" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H90" s="43">
         <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:11" outlineLevel="1">
-      <x:c r="B91" s="40" t="n">
-        <x:v>1009</x:v>
-      </x:c>
-      <x:c r="C91" s="41" t="s"/>
+    <x:row r="91" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B91" s="40">
+        <x:v>1209</x:v>
+      </x:c>
+      <x:c r="C91" s="41"/>
       <x:c r="D91" s="42">
-        <x:v>32275</x:v>
+        <x:v>34650</x:v>
       </x:c>
       <x:c r="E91" s="42">
-        <x:v>32274</x:v>
-      </x:c>
-      <x:c r="F91" s="43" t="n">
-        <x:v>5587</x:v>
-      </x:c>
-      <x:c r="G91" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H91" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:11" outlineLevel="1">
-      <x:c r="B92" s="40" t="n">
+        <x:v>34650</x:v>
+      </x:c>
+      <x:c r="F91" s="43">
+        <x:v>20711.9</x:v>
+      </x:c>
+      <x:c r="G91" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H91" s="43">
+        <x:v>20711.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B92" s="40">
         <x:v>1090</x:v>
       </x:c>
       <x:c r="C92" s="41" t="s">
@@ -2853,18 +2851,18 @@
       <x:c r="E92" s="42">
         <x:v>32653</x:v>
       </x:c>
-      <x:c r="F92" s="43" t="n">
+      <x:c r="F92" s="43">
         <x:v>8507</x:v>
       </x:c>
-      <x:c r="G92" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H92" s="43" t="n">
+      <x:c r="G92" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H92" s="43">
         <x:v>8507</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:11" outlineLevel="1">
-      <x:c r="B93" s="40" t="n">
+    <x:row r="93" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B93" s="40">
         <x:v>1056</x:v>
       </x:c>
       <x:c r="C93" s="41" t="s">
@@ -2876,60 +2874,60 @@
       <x:c r="E93" s="42">
         <x:v>32547</x:v>
       </x:c>
-      <x:c r="F93" s="43" t="n">
+      <x:c r="F93" s="43">
         <x:v>19293.7</x:v>
       </x:c>
-      <x:c r="G93" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H93" s="43" t="n">
+      <x:c r="G93" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H93" s="43">
         <x:v>19293.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:11" outlineLevel="1">
-      <x:c r="B94" s="40" t="n">
+    <x:row r="94" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B94" s="40">
+        <x:v>1156</x:v>
+      </x:c>
+      <x:c r="C94" s="41"/>
+      <x:c r="D94" s="42">
+        <x:v>34463</x:v>
+      </x:c>
+      <x:c r="E94" s="42">
+        <x:v>34463</x:v>
+      </x:c>
+      <x:c r="F94" s="43">
+        <x:v>12367</x:v>
+      </x:c>
+      <x:c r="G94" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H94" s="43">
+        <x:v>12367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B95" s="40">
         <x:v>1197</x:v>
       </x:c>
-      <x:c r="C94" s="41" t="s"/>
-      <x:c r="D94" s="42">
+      <x:c r="C95" s="41"/>
+      <x:c r="D95" s="42">
         <x:v>34589</x:v>
       </x:c>
-      <x:c r="E94" s="42">
+      <x:c r="E95" s="42">
         <x:v>34589</x:v>
       </x:c>
-      <x:c r="F94" s="43" t="n">
+      <x:c r="F95" s="43">
         <x:v>6731</x:v>
       </x:c>
-      <x:c r="G94" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H94" s="43" t="n">
+      <x:c r="G95" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H95" s="43">
         <x:v>6731</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:11" outlineLevel="1">
-      <x:c r="B95" s="40" t="n">
-        <x:v>1156</x:v>
-      </x:c>
-      <x:c r="C95" s="41" t="s"/>
-      <x:c r="D95" s="42">
-        <x:v>34463</x:v>
-      </x:c>
-      <x:c r="E95" s="42">
-        <x:v>34463</x:v>
-      </x:c>
-      <x:c r="F95" s="43" t="n">
-        <x:v>12367</x:v>
-      </x:c>
-      <x:c r="G95" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H95" s="43" t="n">
-        <x:v>12367</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:11" outlineLevel="1">
-      <x:c r="B96" s="40" t="n">
+    <x:row r="96" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B96" s="40">
         <x:v>1165</x:v>
       </x:c>
       <x:c r="C96" s="41" t="s">
@@ -2941,29 +2939,29 @@
       <x:c r="E96" s="42">
         <x:v>34511</x:v>
       </x:c>
-      <x:c r="F96" s="43" t="n">
+      <x:c r="F96" s="43">
         <x:v>2692.85</x:v>
       </x:c>
-      <x:c r="G96" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H96" s="43" t="n">
+      <x:c r="G96" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H96" s="43">
         <x:v>2692.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:11">
-      <x:c r="B97" s="34" t="s"/>
-      <x:c r="C97" s="35" t="s"/>
-      <x:c r="D97" s="36" t="s"/>
-      <x:c r="E97" s="37" t="s"/>
-      <x:c r="F97" s="38" t="s"/>
-      <x:c r="G97" s="36" t="s"/>
+    <x:row r="97" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B97" s="34"/>
+      <x:c r="C97" s="35"/>
+      <x:c r="D97" s="36"/>
+      <x:c r="E97" s="37"/>
+      <x:c r="F97" s="38"/>
+      <x:c r="G97" s="36"/>
       <x:c r="H97" s="39" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:11" outlineLevel="1">
-      <x:c r="B98" s="40" t="n">
+    <x:row r="98" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B98" s="40">
         <x:v>1133</x:v>
       </x:c>
       <x:c r="C98" s="41" t="s">
@@ -2975,18 +2973,18 @@
       <x:c r="E98" s="42">
         <x:v>34275</x:v>
       </x:c>
-      <x:c r="F98" s="43" t="n">
+      <x:c r="F98" s="43">
         <x:v>2419</x:v>
       </x:c>
-      <x:c r="G98" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H98" s="43" t="n">
+      <x:c r="G98" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H98" s="43">
         <x:v>2419</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:11" outlineLevel="1">
-      <x:c r="B99" s="40" t="n">
+    <x:row r="99" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B99" s="40">
         <x:v>1024</x:v>
       </x:c>
       <x:c r="C99" s="41" t="s">
@@ -2998,18 +2996,18 @@
       <x:c r="E99" s="42">
         <x:v>32326</x:v>
       </x:c>
-      <x:c r="F99" s="43" t="n">
+      <x:c r="F99" s="43">
         <x:v>6897</x:v>
       </x:c>
-      <x:c r="G99" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H99" s="43" t="n">
+      <x:c r="G99" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H99" s="43">
         <x:v>6897</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:11" outlineLevel="1">
-      <x:c r="B100" s="40" t="n">
+    <x:row r="100" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B100" s="40">
         <x:v>1089</x:v>
       </x:c>
       <x:c r="C100" s="41" t="s">
@@ -3021,29 +3019,29 @@
       <x:c r="E100" s="42">
         <x:v>32650</x:v>
       </x:c>
-      <x:c r="F100" s="43" t="n">
+      <x:c r="F100" s="43">
         <x:v>2706</x:v>
       </x:c>
-      <x:c r="G100" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H100" s="43" t="n">
+      <x:c r="G100" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H100" s="43">
         <x:v>2706</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:11">
-      <x:c r="B101" s="34" t="s"/>
-      <x:c r="C101" s="35" t="s"/>
-      <x:c r="D101" s="36" t="s"/>
-      <x:c r="E101" s="37" t="s"/>
-      <x:c r="F101" s="38" t="s"/>
-      <x:c r="G101" s="36" t="s"/>
+    <x:row r="101" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B101" s="34"/>
+      <x:c r="C101" s="35"/>
+      <x:c r="D101" s="36"/>
+      <x:c r="E101" s="37"/>
+      <x:c r="F101" s="38"/>
+      <x:c r="G101" s="36"/>
       <x:c r="H101" s="39" t="s">
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:11" outlineLevel="1">
-      <x:c r="B102" s="40" t="n">
+    <x:row r="102" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B102" s="40">
         <x:v>1019</x:v>
       </x:c>
       <x:c r="C102" s="41" t="s">
@@ -3055,29 +3053,29 @@
       <x:c r="E102" s="42">
         <x:v>32318</x:v>
       </x:c>
-      <x:c r="F102" s="43" t="n">
+      <x:c r="F102" s="43">
         <x:v>20602</x:v>
       </x:c>
-      <x:c r="G102" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H102" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:11">
-      <x:c r="B103" s="34" t="s"/>
-      <x:c r="C103" s="35" t="s"/>
-      <x:c r="D103" s="36" t="s"/>
-      <x:c r="E103" s="37" t="s"/>
-      <x:c r="F103" s="38" t="s"/>
-      <x:c r="G103" s="36" t="s"/>
+      <x:c r="G102" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H102" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B103" s="34"/>
+      <x:c r="C103" s="35"/>
+      <x:c r="D103" s="36"/>
+      <x:c r="E103" s="37"/>
+      <x:c r="F103" s="38"/>
+      <x:c r="G103" s="36"/>
       <x:c r="H103" s="39" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:11" outlineLevel="1">
-      <x:c r="B104" s="40" t="n">
+    <x:row r="104" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B104" s="40">
         <x:v>1069</x:v>
       </x:c>
       <x:c r="C104" s="41" t="s">
@@ -3089,29 +3087,29 @@
       <x:c r="E104" s="42">
         <x:v>32603</x:v>
       </x:c>
-      <x:c r="F104" s="43" t="n">
+      <x:c r="F104" s="43">
         <x:v>33829.45</x:v>
       </x:c>
-      <x:c r="G104" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H104" s="43" t="n">
+      <x:c r="G104" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H104" s="43">
         <x:v>33829.45</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:11">
-      <x:c r="B105" s="34" t="s"/>
-      <x:c r="C105" s="35" t="s"/>
-      <x:c r="D105" s="36" t="s"/>
-      <x:c r="E105" s="37" t="s"/>
-      <x:c r="F105" s="38" t="s"/>
-      <x:c r="G105" s="36" t="s"/>
+    <x:row r="105" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B105" s="34"/>
+      <x:c r="C105" s="35"/>
+      <x:c r="D105" s="36"/>
+      <x:c r="E105" s="37"/>
+      <x:c r="F105" s="38"/>
+      <x:c r="G105" s="36"/>
       <x:c r="H105" s="39" t="s">
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:11" outlineLevel="1">
-      <x:c r="B106" s="40" t="n">
+    <x:row r="106" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B106" s="40">
         <x:v>1081</x:v>
       </x:c>
       <x:c r="C106" s="41" t="s">
@@ -3123,73 +3121,73 @@
       <x:c r="E106" s="42">
         <x:v>32635</x:v>
       </x:c>
-      <x:c r="F106" s="43" t="n">
+      <x:c r="F106" s="43">
         <x:v>30566</x:v>
       </x:c>
-      <x:c r="G106" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H106" s="43" t="n">
+      <x:c r="G106" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H106" s="43">
         <x:v>30566</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:11" outlineLevel="1">
-      <x:c r="B107" s="40" t="n">
-        <x:v>1103</x:v>
+    <x:row r="107" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B107" s="40">
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="C107" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D107" s="42">
+        <x:v>32581</x:v>
+      </x:c>
+      <x:c r="E107" s="42">
+        <x:v>32580</x:v>
+      </x:c>
+      <x:c r="F107" s="43">
+        <x:v>61869.3</x:v>
+      </x:c>
+      <x:c r="G107" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H107" s="43">
+        <x:v>61869.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B108" s="40">
+        <x:v>1103</x:v>
+      </x:c>
+      <x:c r="C108" s="41"/>
+      <x:c r="D108" s="42">
         <x:v>33798</x:v>
       </x:c>
-      <x:c r="E107" s="42">
+      <x:c r="E108" s="42">
         <x:v>33798</x:v>
       </x:c>
-      <x:c r="F107" s="43" t="n">
+      <x:c r="F108" s="43">
         <x:v>39797.7</x:v>
       </x:c>
-      <x:c r="G107" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H107" s="43" t="n">
+      <x:c r="G108" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H108" s="43">
         <x:v>39797.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:11" outlineLevel="1">
-      <x:c r="B108" s="40" t="n">
-        <x:v>1063</x:v>
-      </x:c>
-      <x:c r="C108" s="41" t="s"/>
-      <x:c r="D108" s="42">
-        <x:v>32581</x:v>
-      </x:c>
-      <x:c r="E108" s="42">
-        <x:v>32580</x:v>
-      </x:c>
-      <x:c r="F108" s="43" t="n">
-        <x:v>61869.3</x:v>
-      </x:c>
-      <x:c r="G108" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H108" s="43" t="n">
-        <x:v>61869.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="109" spans="1:11">
-      <x:c r="B109" s="34" t="s"/>
-      <x:c r="C109" s="35" t="s"/>
-      <x:c r="D109" s="36" t="s"/>
-      <x:c r="E109" s="37" t="s"/>
-      <x:c r="F109" s="38" t="s"/>
-      <x:c r="G109" s="36" t="s"/>
+    <x:row r="109" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B109" s="34"/>
+      <x:c r="C109" s="35"/>
+      <x:c r="D109" s="36"/>
+      <x:c r="E109" s="37"/>
+      <x:c r="F109" s="38"/>
+      <x:c r="G109" s="36"/>
       <x:c r="H109" s="39" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:11" outlineLevel="1">
-      <x:c r="B110" s="40" t="n">
+    <x:row r="110" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B110" s="40">
         <x:v>1016</x:v>
       </x:c>
       <x:c r="C110" s="41" t="s">
@@ -3201,39 +3199,39 @@
       <x:c r="E110" s="42">
         <x:v>32296</x:v>
       </x:c>
-      <x:c r="F110" s="43" t="n">
+      <x:c r="F110" s="43">
         <x:v>2605</x:v>
       </x:c>
-      <x:c r="G110" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H110" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:11" outlineLevel="1">
-      <x:c r="B111" s="40" t="n">
+      <x:c r="G110" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H110" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B111" s="40">
         <x:v>1116</x:v>
       </x:c>
-      <x:c r="C111" s="41" t="s"/>
+      <x:c r="C111" s="41"/>
       <x:c r="D111" s="42">
         <x:v>34049</x:v>
       </x:c>
       <x:c r="E111" s="42">
         <x:v>34049</x:v>
       </x:c>
-      <x:c r="F111" s="43" t="n">
+      <x:c r="F111" s="43">
         <x:v>23104</x:v>
       </x:c>
-      <x:c r="G111" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H111" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:11" outlineLevel="1">
-      <x:c r="B112" s="40" t="n">
+      <x:c r="G111" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H111" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B112" s="40">
         <x:v>1084</x:v>
       </x:c>
       <x:c r="C112" s="41" t="s">
@@ -3245,18 +3243,18 @@
       <x:c r="E112" s="42">
         <x:v>32639</x:v>
       </x:c>
-      <x:c r="F112" s="43" t="n">
+      <x:c r="F112" s="43">
         <x:v>1185</x:v>
       </x:c>
-      <x:c r="G112" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H112" s="43" t="n">
+      <x:c r="G112" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H112" s="43">
         <x:v>1185</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:11" outlineLevel="1">
-      <x:c r="B113" s="40" t="n">
+    <x:row r="113" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B113" s="40">
         <x:v>1034</x:v>
       </x:c>
       <x:c r="C113" s="41" t="s">
@@ -3268,18 +3266,18 @@
       <x:c r="E113" s="42">
         <x:v>32368</x:v>
       </x:c>
-      <x:c r="F113" s="43" t="n">
+      <x:c r="F113" s="43">
         <x:v>18532</x:v>
       </x:c>
-      <x:c r="G113" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H113" s="43" t="n">
+      <x:c r="G113" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H113" s="43">
         <x:v>18532</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:11" outlineLevel="1">
-      <x:c r="B114" s="40" t="n">
+    <x:row r="114" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B114" s="40">
         <x:v>1093</x:v>
       </x:c>
       <x:c r="C114" s="41" t="s">
@@ -3291,29 +3289,29 @@
       <x:c r="E114" s="42">
         <x:v>32660</x:v>
       </x:c>
-      <x:c r="F114" s="43" t="n">
+      <x:c r="F114" s="43">
         <x:v>479.8</x:v>
       </x:c>
-      <x:c r="G114" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H114" s="43" t="n">
+      <x:c r="G114" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H114" s="43">
         <x:v>479.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:11">
-      <x:c r="B115" s="34" t="s"/>
-      <x:c r="C115" s="35" t="s"/>
-      <x:c r="D115" s="36" t="s"/>
-      <x:c r="E115" s="37" t="s"/>
-      <x:c r="F115" s="38" t="s"/>
-      <x:c r="G115" s="36" t="s"/>
+    <x:row r="115" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B115" s="34"/>
+      <x:c r="C115" s="35"/>
+      <x:c r="D115" s="36"/>
+      <x:c r="E115" s="37"/>
+      <x:c r="F115" s="38"/>
+      <x:c r="G115" s="36"/>
       <x:c r="H115" s="39" t="s">
         <x:v>38</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:11" outlineLevel="1">
-      <x:c r="B116" s="40" t="n">
+    <x:row r="116" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B116" s="40">
         <x:v>1015</x:v>
       </x:c>
       <x:c r="C116" s="41" t="s">
@@ -3325,170 +3323,170 @@
       <x:c r="E116" s="42">
         <x:v>32288</x:v>
       </x:c>
-      <x:c r="F116" s="43" t="n">
+      <x:c r="F116" s="43">
         <x:v>20321.75</x:v>
       </x:c>
-      <x:c r="G116" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H116" s="43" t="n">
+      <x:c r="G116" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H116" s="43">
         <x:v>20321.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:11" outlineLevel="1">
-      <x:c r="B117" s="40" t="n">
+    <x:row r="117" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B117" s="40">
+        <x:v>1215</x:v>
+      </x:c>
+      <x:c r="C117" s="41"/>
+      <x:c r="D117" s="42">
+        <x:v>34654</x:v>
+      </x:c>
+      <x:c r="E117" s="42">
+        <x:v>34654</x:v>
+      </x:c>
+      <x:c r="F117" s="43">
+        <x:v>8305.95</x:v>
+      </x:c>
+      <x:c r="G117" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H117" s="43">
+        <x:v>8305.95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B118" s="40">
         <x:v>1315</x:v>
       </x:c>
-      <x:c r="C117" s="41" t="s"/>
-      <x:c r="D117" s="42">
+      <x:c r="C118" s="41"/>
+      <x:c r="D118" s="42">
         <x:v>34725</x:v>
       </x:c>
-      <x:c r="E117" s="42">
+      <x:c r="E118" s="42">
         <x:v>34725</x:v>
       </x:c>
-      <x:c r="F117" s="43" t="n">
+      <x:c r="F118" s="43">
         <x:v>5037.1</x:v>
       </x:c>
-      <x:c r="G117" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H117" s="43" t="n">
+      <x:c r="G118" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H118" s="43">
         <x:v>5037.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:11" outlineLevel="1">
-      <x:c r="B118" s="40" t="n">
-        <x:v>1215</x:v>
-      </x:c>
-      <x:c r="C118" s="41" t="s"/>
-      <x:c r="D118" s="42">
-        <x:v>34654</x:v>
-      </x:c>
-      <x:c r="E118" s="42">
-        <x:v>34654</x:v>
-      </x:c>
-      <x:c r="F118" s="43" t="n">
-        <x:v>8305.95</x:v>
-      </x:c>
-      <x:c r="G118" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H118" s="43" t="n">
-        <x:v>8305.95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119" spans="1:11" outlineLevel="1">
-      <x:c r="B119" s="40" t="n">
-        <x:v>1128</x:v>
+    <x:row r="119" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B119" s="40">
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="C119" s="41" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D119" s="42">
+        <x:v>32332</x:v>
+      </x:c>
+      <x:c r="E119" s="42">
+        <x:v>32331</x:v>
+      </x:c>
+      <x:c r="F119" s="43">
+        <x:v>343.8</x:v>
+      </x:c>
+      <x:c r="G119" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H119" s="43">
+        <x:v>343.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B120" s="40">
+        <x:v>1128</x:v>
+      </x:c>
+      <x:c r="C120" s="41"/>
+      <x:c r="D120" s="42">
         <x:v>34250</x:v>
       </x:c>
-      <x:c r="E119" s="42">
+      <x:c r="E120" s="42">
         <x:v>34250</x:v>
       </x:c>
-      <x:c r="F119" s="43" t="n">
+      <x:c r="F120" s="43">
         <x:v>8294</x:v>
       </x:c>
-      <x:c r="G119" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H119" s="43" t="n">
+      <x:c r="G120" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H120" s="43">
         <x:v>8294</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:11" outlineLevel="1">
-      <x:c r="B120" s="40" t="n">
-        <x:v>1028</x:v>
-      </x:c>
-      <x:c r="C120" s="41" t="s"/>
-      <x:c r="D120" s="42">
-        <x:v>32332</x:v>
-      </x:c>
-      <x:c r="E120" s="42">
-        <x:v>32331</x:v>
-      </x:c>
-      <x:c r="F120" s="43" t="n">
-        <x:v>343.8</x:v>
-      </x:c>
-      <x:c r="G120" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H120" s="43" t="n">
-        <x:v>343.8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:11">
-      <x:c r="B121" s="34" t="s"/>
-      <x:c r="C121" s="35" t="s"/>
-      <x:c r="D121" s="36" t="s"/>
-      <x:c r="E121" s="37" t="s"/>
-      <x:c r="F121" s="38" t="s"/>
-      <x:c r="G121" s="36" t="s"/>
+    <x:row r="121" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B121" s="34"/>
+      <x:c r="C121" s="35"/>
+      <x:c r="D121" s="36"/>
+      <x:c r="E121" s="37"/>
+      <x:c r="F121" s="38"/>
+      <x:c r="G121" s="36"/>
       <x:c r="H121" s="39" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:11" outlineLevel="1">
-      <x:c r="B122" s="40" t="n">
-        <x:v>1141</x:v>
+    <x:row r="122" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B122" s="40">
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="C122" s="41" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D122" s="42">
+        <x:v>32403</x:v>
+      </x:c>
+      <x:c r="E122" s="42">
+        <x:v>32402</x:v>
+      </x:c>
+      <x:c r="F122" s="43">
+        <x:v>7807</x:v>
+      </x:c>
+      <x:c r="G122" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H122" s="43">
+        <x:v>7807</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B123" s="40">
+        <x:v>1141</x:v>
+      </x:c>
+      <x:c r="C123" s="41"/>
+      <x:c r="D123" s="42">
         <x:v>34320</x:v>
       </x:c>
-      <x:c r="E122" s="42">
+      <x:c r="E123" s="42">
         <x:v>34320</x:v>
       </x:c>
-      <x:c r="F122" s="43" t="n">
+      <x:c r="F123" s="43">
         <x:v>1846</x:v>
       </x:c>
-      <x:c r="G122" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H122" s="43" t="n">
+      <x:c r="G123" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H123" s="43">
         <x:v>1846</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:11" outlineLevel="1">
-      <x:c r="B123" s="40" t="n">
-        <x:v>1041</x:v>
-      </x:c>
-      <x:c r="C123" s="41" t="s"/>
-      <x:c r="D123" s="42">
-        <x:v>32403</x:v>
-      </x:c>
-      <x:c r="E123" s="42">
-        <x:v>32402</x:v>
-      </x:c>
-      <x:c r="F123" s="43" t="n">
-        <x:v>7807</x:v>
-      </x:c>
-      <x:c r="G123" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H123" s="43" t="n">
-        <x:v>7807</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:11">
-      <x:c r="B124" s="34" t="s"/>
-      <x:c r="C124" s="35" t="s"/>
-      <x:c r="D124" s="36" t="s"/>
-      <x:c r="E124" s="37" t="s"/>
-      <x:c r="F124" s="38" t="s"/>
-      <x:c r="G124" s="36" t="s"/>
+    <x:row r="124" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B124" s="34"/>
+      <x:c r="C124" s="35"/>
+      <x:c r="D124" s="36"/>
+      <x:c r="E124" s="37"/>
+      <x:c r="F124" s="38"/>
+      <x:c r="G124" s="36"/>
       <x:c r="H124" s="39" t="s">
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="125" spans="1:11" outlineLevel="1">
-      <x:c r="B125" s="40" t="n">
+    <x:row r="125" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B125" s="40">
         <x:v>1023</x:v>
       </x:c>
       <x:c r="C125" s="41" t="s">
@@ -3500,83 +3498,83 @@
       <x:c r="E125" s="42">
         <x:v>32325</x:v>
       </x:c>
-      <x:c r="F125" s="43" t="n">
+      <x:c r="F125" s="43">
         <x:v>4674</x:v>
       </x:c>
-      <x:c r="G125" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H125" s="43" t="n">
+      <x:c r="G125" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H125" s="43">
         <x:v>4674</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:11" outlineLevel="1">
-      <x:c r="B126" s="40" t="n">
+    <x:row r="126" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B126" s="40">
         <x:v>1123</x:v>
       </x:c>
-      <x:c r="C126" s="41" t="s"/>
+      <x:c r="C126" s="41"/>
       <x:c r="D126" s="42">
         <x:v>34205</x:v>
       </x:c>
       <x:c r="E126" s="42">
         <x:v>34205</x:v>
       </x:c>
-      <x:c r="F126" s="43" t="n">
+      <x:c r="F126" s="43">
         <x:v>13945</x:v>
       </x:c>
-      <x:c r="G126" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H126" s="43" t="n">
+      <x:c r="G126" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H126" s="43">
         <x:v>13945</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:11" outlineLevel="1">
-      <x:c r="B127" s="40" t="n">
-        <x:v>1269</x:v>
+    <x:row r="127" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B127" s="40">
+        <x:v>1169</x:v>
       </x:c>
       <x:c r="C127" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D127" s="42">
+        <x:v>34521</x:v>
+      </x:c>
+      <x:c r="E127" s="42">
+        <x:v>34521</x:v>
+      </x:c>
+      <x:c r="F127" s="43">
+        <x:v>9471.95</x:v>
+      </x:c>
+      <x:c r="G127" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H127" s="43">
+        <x:v>9471.95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B128" s="40">
+        <x:v>1269</x:v>
+      </x:c>
+      <x:c r="C128" s="41"/>
+      <x:c r="D128" s="42">
         <x:v>34684</x:v>
       </x:c>
-      <x:c r="E127" s="42">
+      <x:c r="E128" s="42">
         <x:v>34684</x:v>
       </x:c>
-      <x:c r="F127" s="43" t="n">
+      <x:c r="F128" s="43">
         <x:v>1400</x:v>
       </x:c>
-      <x:c r="G127" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H127" s="43" t="n">
+      <x:c r="G128" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H128" s="43">
         <x:v>1400</x:v>
       </x:c>
     </x:row>
-    <x:row r="128" spans="1:11" outlineLevel="1">
-      <x:c r="B128" s="40" t="n">
-        <x:v>1169</x:v>
-      </x:c>
-      <x:c r="C128" s="41" t="s"/>
-      <x:c r="D128" s="42">
-        <x:v>34521</x:v>
-      </x:c>
-      <x:c r="E128" s="42">
-        <x:v>34521</x:v>
-      </x:c>
-      <x:c r="F128" s="43" t="n">
-        <x:v>9471.95</x:v>
-      </x:c>
-      <x:c r="G128" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H128" s="43" t="n">
-        <x:v>9471.95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:11" outlineLevel="1">
-      <x:c r="B129" s="40" t="n">
+    <x:row r="129" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B129" s="40">
         <x:v>1076</x:v>
       </x:c>
       <x:c r="C129" s="41" t="s">
@@ -3588,50 +3586,50 @@
       <x:c r="E129" s="42">
         <x:v>34684</x:v>
       </x:c>
-      <x:c r="F129" s="43" t="n">
+      <x:c r="F129" s="43">
         <x:v>17781</x:v>
       </x:c>
-      <x:c r="G129" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H129" s="43" t="n">
+      <x:c r="G129" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H129" s="43">
         <x:v>17781</x:v>
       </x:c>
     </x:row>
-    <x:row r="130" spans="1:11" outlineLevel="1">
-      <x:c r="B130" s="40" t="n">
+    <x:row r="130" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B130" s="40">
         <x:v>1176</x:v>
       </x:c>
-      <x:c r="C130" s="41" t="s"/>
+      <x:c r="C130" s="41"/>
       <x:c r="D130" s="42">
         <x:v>34541</x:v>
       </x:c>
       <x:c r="E130" s="42">
         <x:v>34541</x:v>
       </x:c>
-      <x:c r="F130" s="43" t="n">
+      <x:c r="F130" s="43">
         <x:v>4178.85</x:v>
       </x:c>
-      <x:c r="G130" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H130" s="43" t="n">
+      <x:c r="G130" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H130" s="43">
         <x:v>4178.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="131" spans="1:11">
-      <x:c r="B131" s="34" t="s"/>
-      <x:c r="C131" s="35" t="s"/>
-      <x:c r="D131" s="36" t="s"/>
-      <x:c r="E131" s="37" t="s"/>
-      <x:c r="F131" s="38" t="s"/>
-      <x:c r="G131" s="36" t="s"/>
+    <x:row r="131" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B131" s="34"/>
+      <x:c r="C131" s="35"/>
+      <x:c r="D131" s="36"/>
+      <x:c r="E131" s="37"/>
+      <x:c r="F131" s="38"/>
+      <x:c r="G131" s="36"/>
       <x:c r="H131" s="39" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="132" spans="1:11" outlineLevel="1">
-      <x:c r="B132" s="40" t="n">
+    <x:row r="132" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B132" s="40">
         <x:v>1096</x:v>
       </x:c>
       <x:c r="C132" s="41" t="s">
@@ -3643,50 +3641,50 @@
       <x:c r="E132" s="42">
         <x:v>32668</x:v>
       </x:c>
-      <x:c r="F132" s="43" t="n">
+      <x:c r="F132" s="43">
         <x:v>123740</x:v>
       </x:c>
-      <x:c r="G132" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H132" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:11" outlineLevel="1">
-      <x:c r="B133" s="40" t="n">
+      <x:c r="G132" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H132" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B133" s="40">
         <x:v>1196</x:v>
       </x:c>
-      <x:c r="C133" s="41" t="s"/>
+      <x:c r="C133" s="41"/>
       <x:c r="D133" s="42">
         <x:v>34585</x:v>
       </x:c>
       <x:c r="E133" s="42">
         <x:v>34585</x:v>
       </x:c>
-      <x:c r="F133" s="43" t="n">
+      <x:c r="F133" s="43">
         <x:v>5983</x:v>
       </x:c>
-      <x:c r="G133" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H133" s="43" t="n">
+      <x:c r="G133" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H133" s="43">
         <x:v>5983</x:v>
       </x:c>
     </x:row>
-    <x:row r="134" spans="1:11">
-      <x:c r="B134" s="34" t="s"/>
-      <x:c r="C134" s="35" t="s"/>
-      <x:c r="D134" s="36" t="s"/>
-      <x:c r="E134" s="37" t="s"/>
-      <x:c r="F134" s="38" t="s"/>
-      <x:c r="G134" s="36" t="s"/>
+    <x:row r="134" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B134" s="34"/>
+      <x:c r="C134" s="35"/>
+      <x:c r="D134" s="36"/>
+      <x:c r="E134" s="37"/>
+      <x:c r="F134" s="38"/>
+      <x:c r="G134" s="36"/>
       <x:c r="H134" s="39" t="s">
         <x:v>42</x:v>
       </x:c>
     </x:row>
-    <x:row r="135" spans="1:11" outlineLevel="1">
-      <x:c r="B135" s="40" t="n">
+    <x:row r="135" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B135" s="40">
         <x:v>1158</x:v>
       </x:c>
       <x:c r="C135" s="41" t="s">
@@ -3698,29 +3696,29 @@
       <x:c r="E135" s="42">
         <x:v>34476</x:v>
       </x:c>
-      <x:c r="F135" s="43" t="n">
+      <x:c r="F135" s="43">
         <x:v>9793.55</x:v>
       </x:c>
-      <x:c r="G135" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H135" s="43" t="n">
+      <x:c r="G135" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H135" s="43">
         <x:v>9793.55</x:v>
       </x:c>
     </x:row>
-    <x:row r="136" spans="1:11">
-      <x:c r="B136" s="34" t="s"/>
-      <x:c r="C136" s="35" t="s"/>
-      <x:c r="D136" s="36" t="s"/>
-      <x:c r="E136" s="37" t="s"/>
-      <x:c r="F136" s="38" t="s"/>
-      <x:c r="G136" s="36" t="s"/>
+    <x:row r="136" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B136" s="34"/>
+      <x:c r="C136" s="35"/>
+      <x:c r="D136" s="36"/>
+      <x:c r="E136" s="37"/>
+      <x:c r="F136" s="38"/>
+      <x:c r="G136" s="36"/>
       <x:c r="H136" s="39" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="137" spans="1:11" outlineLevel="1">
-      <x:c r="B137" s="40" t="n">
+    <x:row r="137" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B137" s="40">
         <x:v>1026</x:v>
       </x:c>
       <x:c r="C137" s="41" t="s">
@@ -3732,39 +3730,39 @@
       <x:c r="E137" s="42">
         <x:v>32331</x:v>
       </x:c>
-      <x:c r="F137" s="43" t="n">
+      <x:c r="F137" s="43">
         <x:v>2920</x:v>
       </x:c>
-      <x:c r="G137" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H137" s="43" t="n">
+      <x:c r="G137" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H137" s="43">
         <x:v>2920</x:v>
       </x:c>
     </x:row>
-    <x:row r="138" spans="1:11" outlineLevel="1">
-      <x:c r="B138" s="40" t="n">
+    <x:row r="138" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B138" s="40">
         <x:v>1126</x:v>
       </x:c>
-      <x:c r="C138" s="41" t="s"/>
+      <x:c r="C138" s="41"/>
       <x:c r="D138" s="42">
         <x:v>34243</x:v>
       </x:c>
       <x:c r="E138" s="42">
         <x:v>34243</x:v>
       </x:c>
-      <x:c r="F138" s="43" t="n">
+      <x:c r="F138" s="43">
         <x:v>10107</x:v>
       </x:c>
-      <x:c r="G138" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H138" s="43" t="n">
+      <x:c r="G138" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H138" s="43">
         <x:v>10107</x:v>
       </x:c>
     </x:row>
-    <x:row r="139" spans="1:11" outlineLevel="1">
-      <x:c r="B139" s="40" t="n">
+    <x:row r="139" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B139" s="40">
         <x:v>1013</x:v>
       </x:c>
       <x:c r="C139" s="41" t="s">
@@ -3776,71 +3774,71 @@
       <x:c r="E139" s="42">
         <x:v>32288</x:v>
       </x:c>
-      <x:c r="F139" s="43" t="n">
+      <x:c r="F139" s="43">
         <x:v>3115</x:v>
       </x:c>
-      <x:c r="G139" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H139" s="43" t="n">
+      <x:c r="G139" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H139" s="43">
         <x:v>3115</x:v>
       </x:c>
     </x:row>
-    <x:row r="140" spans="1:11" outlineLevel="1">
-      <x:c r="B140" s="40" t="n">
+    <x:row r="140" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B140" s="40">
         <x:v>1113</x:v>
       </x:c>
-      <x:c r="C140" s="41" t="s"/>
+      <x:c r="C140" s="41"/>
       <x:c r="D140" s="42">
         <x:v>34012</x:v>
       </x:c>
       <x:c r="E140" s="42">
         <x:v>34012</x:v>
       </x:c>
-      <x:c r="F140" s="43" t="n">
+      <x:c r="F140" s="43">
         <x:v>2514.65</x:v>
       </x:c>
-      <x:c r="G140" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H140" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="141" spans="1:11">
-      <x:c r="B141" s="34" t="s"/>
-      <x:c r="C141" s="35" t="s"/>
-      <x:c r="D141" s="36" t="s"/>
-      <x:c r="E141" s="37" t="s"/>
-      <x:c r="F141" s="38" t="s"/>
-      <x:c r="G141" s="36" t="s"/>
+      <x:c r="G140" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H140" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B141" s="34"/>
+      <x:c r="C141" s="35"/>
+      <x:c r="D141" s="36"/>
+      <x:c r="E141" s="37"/>
+      <x:c r="F141" s="38"/>
+      <x:c r="G141" s="36"/>
       <x:c r="H141" s="39" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="142" spans="1:11" outlineLevel="1">
-      <x:c r="B142" s="40" t="n">
+    <x:row r="142" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B142" s="40">
         <x:v>1860</x:v>
       </x:c>
       <x:c r="C142" s="41" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D142" s="42" t="s"/>
+      <x:c r="D142" s="42"/>
       <x:c r="E142" s="42">
         <x:v>35099</x:v>
       </x:c>
-      <x:c r="F142" s="43" t="n">
+      <x:c r="F142" s="43">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="G142" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H142" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="143" spans="1:11" outlineLevel="1">
-      <x:c r="B143" s="40" t="n">
+      <x:c r="G142" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H142" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B143" s="40">
         <x:v>1309</x:v>
       </x:c>
       <x:c r="C143" s="41" t="s">
@@ -3852,18 +3850,18 @@
       <x:c r="E143" s="42">
         <x:v>34721</x:v>
       </x:c>
-      <x:c r="F143" s="43" t="n">
+      <x:c r="F143" s="43">
         <x:v>465</x:v>
       </x:c>
-      <x:c r="G143" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H143" s="43" t="n">
+      <x:c r="G143" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H143" s="43">
         <x:v>465</x:v>
       </x:c>
     </x:row>
-    <x:row r="144" spans="1:11" outlineLevel="1">
-      <x:c r="B144" s="40" t="n">
+    <x:row r="144" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B144" s="40">
         <x:v>1030</x:v>
       </x:c>
       <x:c r="C144" s="41" t="s">
@@ -3875,50 +3873,50 @@
       <x:c r="E144" s="42">
         <x:v>32349</x:v>
       </x:c>
-      <x:c r="F144" s="43" t="n">
+      <x:c r="F144" s="43">
         <x:v>559.6</x:v>
       </x:c>
-      <x:c r="G144" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H144" s="43" t="n">
+      <x:c r="G144" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H144" s="43">
         <x:v>559.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="145" spans="1:11" outlineLevel="1">
-      <x:c r="B145" s="40" t="n">
+    <x:row r="145" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B145" s="40">
         <x:v>1097</x:v>
       </x:c>
-      <x:c r="C145" s="41" t="s"/>
+      <x:c r="C145" s="41"/>
       <x:c r="D145" s="42">
         <x:v>32671</x:v>
       </x:c>
       <x:c r="E145" s="42">
         <x:v>32671</x:v>
       </x:c>
-      <x:c r="F145" s="43" t="n">
+      <x:c r="F145" s="43">
         <x:v>12953.6</x:v>
       </x:c>
-      <x:c r="G145" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H145" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="146" spans="1:11">
-      <x:c r="B146" s="34" t="s"/>
-      <x:c r="C146" s="35" t="s"/>
-      <x:c r="D146" s="36" t="s"/>
-      <x:c r="E146" s="37" t="s"/>
-      <x:c r="F146" s="38" t="s"/>
-      <x:c r="G146" s="36" t="s"/>
+      <x:c r="G145" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H145" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B146" s="34"/>
+      <x:c r="C146" s="35"/>
+      <x:c r="D146" s="36"/>
+      <x:c r="E146" s="37"/>
+      <x:c r="F146" s="38"/>
+      <x:c r="G146" s="36"/>
       <x:c r="H146" s="39" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="147" spans="1:11" outlineLevel="1">
-      <x:c r="B147" s="40" t="n">
+    <x:row r="147" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B147" s="40">
         <x:v>1082</x:v>
       </x:c>
       <x:c r="C147" s="41" t="s">
@@ -3930,18 +3928,18 @@
       <x:c r="E147" s="42">
         <x:v>32637</x:v>
       </x:c>
-      <x:c r="F147" s="43" t="n">
+      <x:c r="F147" s="43">
         <x:v>1416.45</x:v>
       </x:c>
-      <x:c r="G147" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H147" s="43" t="n">
+      <x:c r="G147" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H147" s="43">
         <x:v>1416.45</x:v>
       </x:c>
     </x:row>
-    <x:row r="148" spans="1:11" outlineLevel="1">
-      <x:c r="B148" s="40" t="n">
+    <x:row r="148" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B148" s="40">
         <x:v>1010</x:v>
       </x:c>
       <x:c r="C148" s="41" t="s">
@@ -3953,73 +3951,73 @@
       <x:c r="E148" s="42">
         <x:v>32274</x:v>
       </x:c>
-      <x:c r="F148" s="43" t="n">
+      <x:c r="F148" s="43">
         <x:v>4996</x:v>
       </x:c>
-      <x:c r="G148" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H148" s="43" t="n">
+      <x:c r="G148" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H148" s="43">
         <x:v>4996</x:v>
       </x:c>
     </x:row>
-    <x:row r="149" spans="1:11" outlineLevel="1">
-      <x:c r="B149" s="40" t="n">
-        <x:v>1170</x:v>
+    <x:row r="149" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B149" s="40">
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="C149" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D149" s="42">
+        <x:v>32629</x:v>
+      </x:c>
+      <x:c r="E149" s="42">
+        <x:v>32627</x:v>
+      </x:c>
+      <x:c r="F149" s="43">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G149" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H149" s="43">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B150" s="40">
+        <x:v>1170</x:v>
+      </x:c>
+      <x:c r="C150" s="41"/>
+      <x:c r="D150" s="42">
         <x:v>34523</x:v>
       </x:c>
-      <x:c r="E149" s="42">
+      <x:c r="E150" s="42">
         <x:v>34523</x:v>
       </x:c>
-      <x:c r="F149" s="43" t="n">
+      <x:c r="F150" s="43">
         <x:v>5654.8</x:v>
       </x:c>
-      <x:c r="G149" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H149" s="43" t="n">
+      <x:c r="G150" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H150" s="43">
         <x:v>5654.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="150" spans="1:11" outlineLevel="1">
-      <x:c r="B150" s="40" t="n">
-        <x:v>1077</x:v>
-      </x:c>
-      <x:c r="C150" s="41" t="s"/>
-      <x:c r="D150" s="42">
-        <x:v>32629</x:v>
-      </x:c>
-      <x:c r="E150" s="42">
-        <x:v>32627</x:v>
-      </x:c>
-      <x:c r="F150" s="43" t="n">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="G150" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H150" s="43" t="n">
-        <x:v>156</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="151" spans="1:11">
-      <x:c r="B151" s="34" t="s"/>
-      <x:c r="C151" s="35" t="s"/>
-      <x:c r="D151" s="36" t="s"/>
-      <x:c r="E151" s="37" t="s"/>
-      <x:c r="F151" s="38" t="s"/>
-      <x:c r="G151" s="36" t="s"/>
+    <x:row r="151" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B151" s="34"/>
+      <x:c r="C151" s="35"/>
+      <x:c r="D151" s="36"/>
+      <x:c r="E151" s="37"/>
+      <x:c r="F151" s="38"/>
+      <x:c r="G151" s="36"/>
       <x:c r="H151" s="39" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="152" spans="1:11" outlineLevel="1">
-      <x:c r="B152" s="40" t="n">
+    <x:row r="152" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B152" s="40">
         <x:v>1045</x:v>
       </x:c>
       <x:c r="C152" s="41" t="s">
@@ -4031,94 +4029,94 @@
       <x:c r="E152" s="42">
         <x:v>32432</x:v>
       </x:c>
-      <x:c r="F152" s="43" t="n">
+      <x:c r="F152" s="43">
         <x:v>787.8</x:v>
       </x:c>
-      <x:c r="G152" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H152" s="43" t="n">
+      <x:c r="G152" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H152" s="43">
         <x:v>787.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="153" spans="1:11" outlineLevel="1">
-      <x:c r="B153" s="40" t="n">
+    <x:row r="153" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B153" s="40">
         <x:v>1145</x:v>
       </x:c>
-      <x:c r="C153" s="41" t="s"/>
+      <x:c r="C153" s="41"/>
       <x:c r="D153" s="42">
         <x:v>34351</x:v>
       </x:c>
       <x:c r="E153" s="42">
         <x:v>34351</x:v>
       </x:c>
-      <x:c r="F153" s="43" t="n">
+      <x:c r="F153" s="43">
         <x:v>4229.8</x:v>
       </x:c>
-      <x:c r="G153" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H153" s="43" t="n">
+      <x:c r="G153" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H153" s="43">
         <x:v>4229.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="154" spans="1:11" outlineLevel="1">
-      <x:c r="B154" s="40" t="n">
-        <x:v>1149</x:v>
+    <x:row r="154" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B154" s="40">
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="C154" s="41" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D154" s="42">
+        <x:v>32491</x:v>
+      </x:c>
+      <x:c r="E154" s="42">
+        <x:v>32490</x:v>
+      </x:c>
+      <x:c r="F154" s="43">
+        <x:v>1809.85</x:v>
+      </x:c>
+      <x:c r="G154" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H154" s="43">
+        <x:v>1809.85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B155" s="40">
+        <x:v>1149</x:v>
+      </x:c>
+      <x:c r="C155" s="41"/>
+      <x:c r="D155" s="42">
         <x:v>34407</x:v>
       </x:c>
-      <x:c r="E154" s="42">
+      <x:c r="E155" s="42">
         <x:v>34407</x:v>
       </x:c>
-      <x:c r="F154" s="43" t="n">
+      <x:c r="F155" s="43">
         <x:v>12900.75</x:v>
       </x:c>
-      <x:c r="G154" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H154" s="43" t="n">
+      <x:c r="G155" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H155" s="43">
         <x:v>12900.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="155" spans="1:11" outlineLevel="1">
-      <x:c r="B155" s="40" t="n">
-        <x:v>1049</x:v>
-      </x:c>
-      <x:c r="C155" s="41" t="s"/>
-      <x:c r="D155" s="42">
-        <x:v>32491</x:v>
-      </x:c>
-      <x:c r="E155" s="42">
-        <x:v>32490</x:v>
-      </x:c>
-      <x:c r="F155" s="43" t="n">
-        <x:v>1809.85</x:v>
-      </x:c>
-      <x:c r="G155" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H155" s="43" t="n">
-        <x:v>1809.85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="156" spans="1:11">
-      <x:c r="B156" s="34" t="s"/>
-      <x:c r="C156" s="35" t="s"/>
-      <x:c r="D156" s="36" t="s"/>
-      <x:c r="E156" s="37" t="s"/>
-      <x:c r="F156" s="38" t="s"/>
-      <x:c r="G156" s="36" t="s"/>
+    <x:row r="156" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B156" s="34"/>
+      <x:c r="C156" s="35"/>
+      <x:c r="D156" s="36"/>
+      <x:c r="E156" s="37"/>
+      <x:c r="F156" s="38"/>
+      <x:c r="G156" s="36"/>
       <x:c r="H156" s="39" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="157" spans="1:11" outlineLevel="1">
-      <x:c r="B157" s="40" t="n">
+    <x:row r="157" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B157" s="40">
         <x:v>1092</x:v>
       </x:c>
       <x:c r="C157" s="41" t="s">
@@ -4130,29 +4128,29 @@
       <x:c r="E157" s="42">
         <x:v>32658</x:v>
       </x:c>
-      <x:c r="F157" s="43" t="n">
+      <x:c r="F157" s="43">
         <x:v>76698.75</x:v>
       </x:c>
-      <x:c r="G157" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H157" s="43" t="n">
+      <x:c r="G157" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H157" s="43">
         <x:v>76698.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="158" spans="1:11">
-      <x:c r="B158" s="34" t="s"/>
-      <x:c r="C158" s="35" t="s"/>
-      <x:c r="D158" s="36" t="s"/>
-      <x:c r="E158" s="37" t="s"/>
-      <x:c r="F158" s="38" t="s"/>
-      <x:c r="G158" s="36" t="s"/>
+    <x:row r="158" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B158" s="34"/>
+      <x:c r="C158" s="35"/>
+      <x:c r="D158" s="36"/>
+      <x:c r="E158" s="37"/>
+      <x:c r="F158" s="38"/>
+      <x:c r="G158" s="36"/>
       <x:c r="H158" s="39" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="159" spans="1:11" outlineLevel="1">
-      <x:c r="B159" s="40" t="n">
+    <x:row r="159" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B159" s="40">
         <x:v>1047</x:v>
       </x:c>
       <x:c r="C159" s="41" t="s">
@@ -4164,73 +4162,73 @@
       <x:c r="E159" s="42">
         <x:v>32474</x:v>
       </x:c>
-      <x:c r="F159" s="43" t="n">
+      <x:c r="F159" s="43">
         <x:v>15365</x:v>
       </x:c>
-      <x:c r="G159" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H159" s="43" t="n">
+      <x:c r="G159" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H159" s="43">
         <x:v>15365</x:v>
       </x:c>
     </x:row>
-    <x:row r="160" spans="1:11" outlineLevel="1">
-      <x:c r="B160" s="40" t="n">
-        <x:v>1144</x:v>
+    <x:row r="160" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B160" s="40">
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="C160" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D160" s="42">
+        <x:v>32425</x:v>
+      </x:c>
+      <x:c r="E160" s="42">
+        <x:v>32424</x:v>
+      </x:c>
+      <x:c r="F160" s="43">
+        <x:v>64050</x:v>
+      </x:c>
+      <x:c r="G160" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H160" s="43">
+        <x:v>64050</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B161" s="40">
+        <x:v>1144</x:v>
+      </x:c>
+      <x:c r="C161" s="41"/>
+      <x:c r="D161" s="42">
         <x:v>34343</x:v>
       </x:c>
-      <x:c r="E160" s="42">
+      <x:c r="E161" s="42">
         <x:v>34343</x:v>
       </x:c>
-      <x:c r="F160" s="43" t="n">
+      <x:c r="F161" s="43">
         <x:v>10054</x:v>
       </x:c>
-      <x:c r="G160" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H160" s="43" t="n">
+      <x:c r="G161" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H161" s="43">
         <x:v>10054</x:v>
       </x:c>
     </x:row>
-    <x:row r="161" spans="1:11" outlineLevel="1">
-      <x:c r="B161" s="40" t="n">
-        <x:v>1044</x:v>
-      </x:c>
-      <x:c r="C161" s="41" t="s"/>
-      <x:c r="D161" s="42">
-        <x:v>32425</x:v>
-      </x:c>
-      <x:c r="E161" s="42">
-        <x:v>32424</x:v>
-      </x:c>
-      <x:c r="F161" s="43" t="n">
-        <x:v>64050</x:v>
-      </x:c>
-      <x:c r="G161" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H161" s="43" t="n">
-        <x:v>64050</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="162" spans="1:11">
-      <x:c r="B162" s="34" t="s"/>
-      <x:c r="C162" s="35" t="s"/>
-      <x:c r="D162" s="36" t="s"/>
-      <x:c r="E162" s="37" t="s"/>
-      <x:c r="F162" s="38" t="s"/>
-      <x:c r="G162" s="36" t="s"/>
+    <x:row r="162" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B162" s="34"/>
+      <x:c r="C162" s="35"/>
+      <x:c r="D162" s="36"/>
+      <x:c r="E162" s="37"/>
+      <x:c r="F162" s="38"/>
+      <x:c r="G162" s="36"/>
       <x:c r="H162" s="39" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="163" spans="1:11" outlineLevel="1">
-      <x:c r="B163" s="40" t="n">
+    <x:row r="163" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B163" s="40">
         <x:v>1025</x:v>
       </x:c>
       <x:c r="C163" s="41" t="s">
@@ -4242,39 +4240,39 @@
       <x:c r="E163" s="42">
         <x:v>32327</x:v>
       </x:c>
-      <x:c r="F163" s="43" t="n">
+      <x:c r="F163" s="43">
         <x:v>930</x:v>
       </x:c>
-      <x:c r="G163" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H163" s="43" t="n">
+      <x:c r="G163" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H163" s="43">
         <x:v>930</x:v>
       </x:c>
     </x:row>
-    <x:row r="164" spans="1:11" outlineLevel="1">
-      <x:c r="B164" s="40" t="n">
+    <x:row r="164" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B164" s="40">
         <x:v>1125</x:v>
       </x:c>
-      <x:c r="C164" s="41" t="s"/>
+      <x:c r="C164" s="41"/>
       <x:c r="D164" s="42">
         <x:v>34216</x:v>
       </x:c>
       <x:c r="E164" s="42">
         <x:v>34216</x:v>
       </x:c>
-      <x:c r="F164" s="43" t="n">
+      <x:c r="F164" s="43">
         <x:v>6583.8</x:v>
       </x:c>
-      <x:c r="G164" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H164" s="43" t="n">
+      <x:c r="G164" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H164" s="43">
         <x:v>6583.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="165" spans="1:11" outlineLevel="1">
-      <x:c r="B165" s="40" t="n">
+    <x:row r="165" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B165" s="40">
         <x:v>1008</x:v>
       </x:c>
       <x:c r="C165" s="41" t="s">
@@ -4286,50 +4284,50 @@
       <x:c r="E165" s="42">
         <x:v>32266</x:v>
       </x:c>
-      <x:c r="F165" s="43" t="n">
+      <x:c r="F165" s="43">
         <x:v>1449.5</x:v>
       </x:c>
-      <x:c r="G165" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H165" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="166" spans="1:11" outlineLevel="1">
-      <x:c r="B166" s="40" t="n">
+      <x:c r="G165" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H165" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B166" s="40">
         <x:v>1139</x:v>
       </x:c>
-      <x:c r="C166" s="41" t="s"/>
+      <x:c r="C166" s="41"/>
       <x:c r="D166" s="42">
         <x:v>34304</x:v>
       </x:c>
       <x:c r="E166" s="42">
         <x:v>34304</x:v>
       </x:c>
-      <x:c r="F166" s="43" t="n">
+      <x:c r="F166" s="43">
         <x:v>47710.75</x:v>
       </x:c>
-      <x:c r="G166" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H166" s="43" t="n">
+      <x:c r="G166" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H166" s="43">
         <x:v>47710.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="167" spans="1:11">
-      <x:c r="B167" s="34" t="s"/>
-      <x:c r="C167" s="35" t="s"/>
-      <x:c r="D167" s="36" t="s"/>
-      <x:c r="E167" s="37" t="s"/>
-      <x:c r="F167" s="38" t="s"/>
-      <x:c r="G167" s="36" t="s"/>
+    <x:row r="167" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B167" s="34"/>
+      <x:c r="C167" s="35"/>
+      <x:c r="D167" s="36"/>
+      <x:c r="E167" s="37"/>
+      <x:c r="F167" s="38"/>
+      <x:c r="G167" s="36"/>
       <x:c r="H167" s="39" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="168" spans="1:11" outlineLevel="1">
-      <x:c r="B168" s="40" t="n">
+    <x:row r="168" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B168" s="40">
         <x:v>1183</x:v>
       </x:c>
       <x:c r="C168" s="41" t="s">
@@ -4341,18 +4339,18 @@
       <x:c r="E168" s="42">
         <x:v>34556</x:v>
       </x:c>
-      <x:c r="F168" s="43" t="n">
+      <x:c r="F168" s="43">
         <x:v>3650</x:v>
       </x:c>
-      <x:c r="G168" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H168" s="43" t="n">
+      <x:c r="G168" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H168" s="43">
         <x:v>3650</x:v>
       </x:c>
     </x:row>
-    <x:row r="169" spans="1:11" outlineLevel="1">
-      <x:c r="B169" s="40" t="n">
+    <x:row r="169" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B169" s="40">
         <x:v>1112</x:v>
       </x:c>
       <x:c r="C169" s="41" t="s">
@@ -4364,18 +4362,18 @@
       <x:c r="E169" s="42">
         <x:v>33971</x:v>
       </x:c>
-      <x:c r="F169" s="43" t="n">
+      <x:c r="F169" s="43">
         <x:v>5565</x:v>
       </x:c>
-      <x:c r="G169" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H169" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="170" spans="1:11" outlineLevel="1">
-      <x:c r="B170" s="40" t="n">
+      <x:c r="G169" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H169" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B170" s="40">
         <x:v>1068</x:v>
       </x:c>
       <x:c r="C170" s="41" t="s">
@@ -4387,29 +4385,29 @@
       <x:c r="E170" s="42">
         <x:v>32601</x:v>
       </x:c>
-      <x:c r="F170" s="43" t="n">
+      <x:c r="F170" s="43">
         <x:v>31847</x:v>
       </x:c>
-      <x:c r="G170" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H170" s="43" t="n">
+      <x:c r="G170" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H170" s="43">
         <x:v>31847</x:v>
       </x:c>
     </x:row>
-    <x:row r="171" spans="1:11">
-      <x:c r="B171" s="34" t="s"/>
-      <x:c r="C171" s="35" t="s"/>
-      <x:c r="D171" s="36" t="s"/>
-      <x:c r="E171" s="37" t="s"/>
-      <x:c r="F171" s="38" t="s"/>
-      <x:c r="G171" s="36" t="s"/>
+    <x:row r="171" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B171" s="34"/>
+      <x:c r="C171" s="35"/>
+      <x:c r="D171" s="36"/>
+      <x:c r="E171" s="37"/>
+      <x:c r="F171" s="38"/>
+      <x:c r="G171" s="36"/>
       <x:c r="H171" s="39" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="172" spans="1:11" outlineLevel="1">
-      <x:c r="B172" s="40" t="n">
+    <x:row r="172" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B172" s="40">
         <x:v>1043</x:v>
       </x:c>
       <x:c r="C172" s="41" t="s">
@@ -4421,50 +4419,50 @@
       <x:c r="E172" s="42">
         <x:v>32416</x:v>
       </x:c>
-      <x:c r="F172" s="43" t="n">
+      <x:c r="F172" s="43">
         <x:v>12455</x:v>
       </x:c>
-      <x:c r="G172" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H172" s="43" t="n">
+      <x:c r="G172" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H172" s="43">
         <x:v>12455</x:v>
       </x:c>
     </x:row>
-    <x:row r="173" spans="1:11" outlineLevel="1">
-      <x:c r="B173" s="40" t="n">
+    <x:row r="173" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B173" s="40">
         <x:v>1143</x:v>
       </x:c>
-      <x:c r="C173" s="41" t="s"/>
+      <x:c r="C173" s="41"/>
       <x:c r="D173" s="42">
         <x:v>34335</x:v>
       </x:c>
       <x:c r="E173" s="42">
         <x:v>34335</x:v>
       </x:c>
-      <x:c r="F173" s="43" t="n">
+      <x:c r="F173" s="43">
         <x:v>3087</x:v>
       </x:c>
-      <x:c r="G173" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H173" s="43" t="n">
+      <x:c r="G173" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H173" s="43">
         <x:v>3087</x:v>
       </x:c>
     </x:row>
-    <x:row r="174" spans="1:11">
-      <x:c r="B174" s="34" t="s"/>
-      <x:c r="C174" s="35" t="s"/>
-      <x:c r="D174" s="36" t="s"/>
-      <x:c r="E174" s="37" t="s"/>
-      <x:c r="F174" s="38" t="s"/>
-      <x:c r="G174" s="36" t="s"/>
+    <x:row r="174" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B174" s="34"/>
+      <x:c r="C174" s="35"/>
+      <x:c r="D174" s="36"/>
+      <x:c r="E174" s="37"/>
+      <x:c r="F174" s="38"/>
+      <x:c r="G174" s="36"/>
       <x:c r="H174" s="39" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="175" spans="1:11" outlineLevel="1">
-      <x:c r="B175" s="40" t="n">
+    <x:row r="175" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B175" s="40">
         <x:v>1201</x:v>
       </x:c>
       <x:c r="C175" s="41" t="s">
@@ -4476,29 +4474,29 @@
       <x:c r="E175" s="42">
         <x:v>34611</x:v>
       </x:c>
-      <x:c r="F175" s="43" t="n">
+      <x:c r="F175" s="43">
         <x:v>7990</x:v>
       </x:c>
-      <x:c r="G175" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H175" s="43" t="n">
+      <x:c r="G175" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H175" s="43">
         <x:v>7990</x:v>
       </x:c>
     </x:row>
-    <x:row r="176" spans="1:11">
-      <x:c r="B176" s="34" t="s"/>
-      <x:c r="C176" s="35" t="s"/>
-      <x:c r="D176" s="36" t="s"/>
-      <x:c r="E176" s="37" t="s"/>
-      <x:c r="F176" s="38" t="s"/>
-      <x:c r="G176" s="36" t="s"/>
+    <x:row r="176" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B176" s="34"/>
+      <x:c r="C176" s="35"/>
+      <x:c r="D176" s="36"/>
+      <x:c r="E176" s="37"/>
+      <x:c r="F176" s="38"/>
+      <x:c r="G176" s="36"/>
       <x:c r="H176" s="39" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="177" spans="1:11" outlineLevel="1">
-      <x:c r="B177" s="40" t="n">
+    <x:row r="177" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B177" s="40">
         <x:v>1199</x:v>
       </x:c>
       <x:c r="C177" s="41" t="s">
@@ -4510,18 +4508,18 @@
       <x:c r="E177" s="42">
         <x:v>34593</x:v>
       </x:c>
-      <x:c r="F177" s="43" t="n">
+      <x:c r="F177" s="43">
         <x:v>716</x:v>
       </x:c>
-      <x:c r="G177" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H177" s="43" t="n">
+      <x:c r="G177" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H177" s="43">
         <x:v>716</x:v>
       </x:c>
     </x:row>
-    <x:row r="178" spans="1:11" outlineLevel="1">
-      <x:c r="B178" s="40" t="n">
+    <x:row r="178" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B178" s="40">
         <x:v>1094</x:v>
       </x:c>
       <x:c r="C178" s="41" t="s">
@@ -4533,29 +4531,29 @@
       <x:c r="E178" s="42">
         <x:v>32662</x:v>
       </x:c>
-      <x:c r="F178" s="43" t="n">
+      <x:c r="F178" s="43">
         <x:v>4113.75</x:v>
       </x:c>
-      <x:c r="G178" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H178" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="179" spans="1:11">
-      <x:c r="B179" s="34" t="s"/>
-      <x:c r="C179" s="35" t="s"/>
-      <x:c r="D179" s="36" t="s"/>
-      <x:c r="E179" s="37" t="s"/>
-      <x:c r="F179" s="38" t="s"/>
-      <x:c r="G179" s="36" t="s"/>
+      <x:c r="G178" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H178" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B179" s="34"/>
+      <x:c r="C179" s="35"/>
+      <x:c r="D179" s="36"/>
+      <x:c r="E179" s="37"/>
+      <x:c r="F179" s="38"/>
+      <x:c r="G179" s="36"/>
       <x:c r="H179" s="39" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="180" spans="1:11" outlineLevel="1">
-      <x:c r="B180" s="40" t="n">
+    <x:row r="180" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B180" s="40">
         <x:v>1175</x:v>
       </x:c>
       <x:c r="C180" s="41" t="s">
@@ -4567,479 +4565,479 @@
       <x:c r="E180" s="42">
         <x:v>34537</x:v>
       </x:c>
-      <x:c r="F180" s="43" t="n">
+      <x:c r="F180" s="43">
         <x:v>13814.05</x:v>
       </x:c>
-      <x:c r="G180" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H180" s="43" t="n">
+      <x:c r="G180" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H180" s="43">
         <x:v>13814.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="181" spans="1:11">
-      <x:c r="B181" s="34" t="s"/>
-      <x:c r="C181" s="35" t="s"/>
-      <x:c r="D181" s="36" t="s"/>
-      <x:c r="E181" s="37" t="s"/>
-      <x:c r="F181" s="38" t="s"/>
-      <x:c r="G181" s="36" t="s"/>
+    <x:row r="181" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B181" s="34"/>
+      <x:c r="C181" s="35"/>
+      <x:c r="D181" s="36"/>
+      <x:c r="E181" s="37"/>
+      <x:c r="F181" s="38"/>
+      <x:c r="G181" s="36"/>
       <x:c r="H181" s="39" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="182" spans="1:11" outlineLevel="1">
-      <x:c r="B182" s="40" t="n">
-        <x:v>1132</x:v>
+    <x:row r="182" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B182" s="40">
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="C182" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D182" s="42">
+        <x:v>32319</x:v>
+      </x:c>
+      <x:c r="E182" s="42">
+        <x:v>32318</x:v>
+      </x:c>
+      <x:c r="F182" s="43">
+        <x:v>3719</x:v>
+      </x:c>
+      <x:c r="G182" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H182" s="43">
+        <x:v>3719</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B183" s="40">
+        <x:v>1022</x:v>
+      </x:c>
+      <x:c r="C183" s="41"/>
+      <x:c r="D183" s="42">
+        <x:v>32325</x:v>
+      </x:c>
+      <x:c r="E183" s="42">
+        <x:v>32324</x:v>
+      </x:c>
+      <x:c r="F183" s="43">
+        <x:v>10064.65</x:v>
+      </x:c>
+      <x:c r="G183" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H183" s="43">
+        <x:v>10064.65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B184" s="40">
+        <x:v>1032</x:v>
+      </x:c>
+      <x:c r="C184" s="41"/>
+      <x:c r="D184" s="42">
+        <x:v>32356</x:v>
+      </x:c>
+      <x:c r="E184" s="42">
+        <x:v>32352</x:v>
+      </x:c>
+      <x:c r="F184" s="43">
+        <x:v>775</x:v>
+      </x:c>
+      <x:c r="G184" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H184" s="43">
+        <x:v>775</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B185" s="40">
+        <x:v>1121</x:v>
+      </x:c>
+      <x:c r="C185" s="41"/>
+      <x:c r="D185" s="42">
+        <x:v>34122</x:v>
+      </x:c>
+      <x:c r="E185" s="42">
+        <x:v>34122</x:v>
+      </x:c>
+      <x:c r="F185" s="43">
+        <x:v>820</x:v>
+      </x:c>
+      <x:c r="G185" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H185" s="43">
+        <x:v>820</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B186" s="40">
+        <x:v>1122</x:v>
+      </x:c>
+      <x:c r="C186" s="41"/>
+      <x:c r="D186" s="42">
+        <x:v>34173</x:v>
+      </x:c>
+      <x:c r="E186" s="42">
+        <x:v>34173</x:v>
+      </x:c>
+      <x:c r="F186" s="43">
+        <x:v>44854</x:v>
+      </x:c>
+      <x:c r="G186" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H186" s="43">
+        <x:v>44854</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B187" s="40">
+        <x:v>1132</x:v>
+      </x:c>
+      <x:c r="C187" s="41"/>
+      <x:c r="D187" s="42">
         <x:v>34274</x:v>
       </x:c>
-      <x:c r="E182" s="42">
+      <x:c r="E187" s="42">
         <x:v>34274</x:v>
       </x:c>
-      <x:c r="F182" s="43" t="n">
+      <x:c r="F187" s="43">
         <x:v>906</x:v>
       </x:c>
-      <x:c r="G182" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H182" s="43" t="n">
+      <x:c r="G187" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H187" s="43">
         <x:v>906</x:v>
       </x:c>
     </x:row>
-    <x:row r="183" spans="1:11" outlineLevel="1">
-      <x:c r="B183" s="40" t="n">
+    <x:row r="188" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B188" s="40">
+        <x:v>1136</x:v>
+      </x:c>
+      <x:c r="C188" s="41"/>
+      <x:c r="D188" s="42">
+        <x:v>34300</x:v>
+      </x:c>
+      <x:c r="E188" s="42">
+        <x:v>34300</x:v>
+      </x:c>
+      <x:c r="F188" s="43">
+        <x:v>2971</x:v>
+      </x:c>
+      <x:c r="G188" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H188" s="43">
+        <x:v>2971</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B189" s="40">
         <x:v>1221</x:v>
       </x:c>
-      <x:c r="C183" s="41" t="s"/>
-      <x:c r="D183" s="42">
+      <x:c r="C189" s="41"/>
+      <x:c r="D189" s="42">
         <x:v>34661</x:v>
       </x:c>
-      <x:c r="E183" s="42">
+      <x:c r="E189" s="42">
         <x:v>34661</x:v>
       </x:c>
-      <x:c r="F183" s="43" t="n">
+      <x:c r="F189" s="43">
         <x:v>2099</x:v>
       </x:c>
-      <x:c r="G183" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H183" s="43" t="n">
+      <x:c r="G189" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H189" s="43">
         <x:v>2099</x:v>
       </x:c>
     </x:row>
-    <x:row r="184" spans="1:11" outlineLevel="1">
-      <x:c r="B184" s="40" t="n">
-        <x:v>1136</x:v>
-      </x:c>
-      <x:c r="C184" s="41" t="s"/>
-      <x:c r="D184" s="42">
-        <x:v>34300</x:v>
-      </x:c>
-      <x:c r="E184" s="42">
-        <x:v>34300</x:v>
-      </x:c>
-      <x:c r="F184" s="43" t="n">
-        <x:v>2971</x:v>
-      </x:c>
-      <x:c r="G184" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H184" s="43" t="n">
-        <x:v>2971</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="185" spans="1:11" outlineLevel="1">
-      <x:c r="B185" s="40" t="n">
-        <x:v>1021</x:v>
-      </x:c>
-      <x:c r="C185" s="41" t="s"/>
-      <x:c r="D185" s="42">
-        <x:v>32319</x:v>
-      </x:c>
-      <x:c r="E185" s="42">
-        <x:v>32318</x:v>
-      </x:c>
-      <x:c r="F185" s="43" t="n">
-        <x:v>3719</x:v>
-      </x:c>
-      <x:c r="G185" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H185" s="43" t="n">
-        <x:v>3719</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186" spans="1:11" outlineLevel="1">
-      <x:c r="B186" s="40" t="n">
-        <x:v>1032</x:v>
-      </x:c>
-      <x:c r="C186" s="41" t="s"/>
-      <x:c r="D186" s="42">
-        <x:v>32356</x:v>
-      </x:c>
-      <x:c r="E186" s="42">
-        <x:v>32352</x:v>
-      </x:c>
-      <x:c r="F186" s="43" t="n">
-        <x:v>775</x:v>
-      </x:c>
-      <x:c r="G186" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H186" s="43" t="n">
-        <x:v>775</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="187" spans="1:11" outlineLevel="1">
-      <x:c r="B187" s="40" t="n">
-        <x:v>1122</x:v>
-      </x:c>
-      <x:c r="C187" s="41" t="s"/>
-      <x:c r="D187" s="42">
-        <x:v>34173</x:v>
-      </x:c>
-      <x:c r="E187" s="42">
-        <x:v>34173</x:v>
-      </x:c>
-      <x:c r="F187" s="43" t="n">
-        <x:v>44854</x:v>
-      </x:c>
-      <x:c r="G187" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H187" s="43" t="n">
-        <x:v>44854</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="188" spans="1:11" outlineLevel="1">
-      <x:c r="B188" s="40" t="n">
-        <x:v>1121</x:v>
-      </x:c>
-      <x:c r="C188" s="41" t="s"/>
-      <x:c r="D188" s="42">
-        <x:v>34122</x:v>
-      </x:c>
-      <x:c r="E188" s="42">
-        <x:v>34122</x:v>
-      </x:c>
-      <x:c r="F188" s="43" t="n">
-        <x:v>820</x:v>
-      </x:c>
-      <x:c r="G188" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H188" s="43" t="n">
-        <x:v>820</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="189" spans="1:11" outlineLevel="1">
-      <x:c r="B189" s="40" t="n">
-        <x:v>1022</x:v>
-      </x:c>
-      <x:c r="C189" s="41" t="s"/>
-      <x:c r="D189" s="42">
-        <x:v>32325</x:v>
-      </x:c>
-      <x:c r="E189" s="42">
-        <x:v>32324</x:v>
-      </x:c>
-      <x:c r="F189" s="43" t="n">
-        <x:v>10064.65</x:v>
-      </x:c>
-      <x:c r="G189" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H189" s="43" t="n">
-        <x:v>10064.65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="190" spans="1:11">
-      <x:c r="B190" s="34" t="s"/>
-      <x:c r="C190" s="35" t="s"/>
-      <x:c r="D190" s="36" t="s"/>
-      <x:c r="E190" s="37" t="s"/>
-      <x:c r="F190" s="38" t="s"/>
-      <x:c r="G190" s="36" t="s"/>
+    <x:row r="190" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B190" s="34"/>
+      <x:c r="C190" s="35"/>
+      <x:c r="D190" s="36"/>
+      <x:c r="E190" s="37"/>
+      <x:c r="F190" s="38"/>
+      <x:c r="G190" s="36"/>
       <x:c r="H190" s="39" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="191" spans="1:11" outlineLevel="1">
-      <x:c r="B191" s="40" t="n">
-        <x:v>1101</x:v>
+    <x:row r="191" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B191" s="40">
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="C191" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D191" s="42">
+        <x:v>32513</x:v>
+      </x:c>
+      <x:c r="E191" s="42">
+        <x:v>32512</x:v>
+      </x:c>
+      <x:c r="F191" s="43">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="G191" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H191" s="43">
+        <x:v>325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B192" s="40">
+        <x:v>1101</x:v>
+      </x:c>
+      <x:c r="C192" s="41"/>
+      <x:c r="D192" s="42">
         <x:v>32693</x:v>
       </x:c>
-      <x:c r="E191" s="42">
+      <x:c r="E192" s="42">
         <x:v>32693</x:v>
       </x:c>
-      <x:c r="F191" s="43" t="n">
+      <x:c r="F192" s="43">
         <x:v>11629.85</x:v>
       </x:c>
-      <x:c r="G191" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H191" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="192" spans="1:11" outlineLevel="1">
-      <x:c r="B192" s="40" t="n">
-        <x:v>1051</x:v>
-      </x:c>
-      <x:c r="C192" s="41" t="s"/>
-      <x:c r="D192" s="42">
-        <x:v>32513</x:v>
-      </x:c>
-      <x:c r="E192" s="42">
-        <x:v>32512</x:v>
-      </x:c>
-      <x:c r="F192" s="43" t="n">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="G192" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H192" s="43" t="n">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="193" spans="1:11">
-      <x:c r="B193" s="34" t="s"/>
-      <x:c r="C193" s="35" t="s"/>
-      <x:c r="D193" s="36" t="s"/>
-      <x:c r="E193" s="37" t="s"/>
-      <x:c r="F193" s="38" t="s"/>
-      <x:c r="G193" s="36" t="s"/>
+      <x:c r="G192" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H192" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B193" s="34"/>
+      <x:c r="C193" s="35"/>
+      <x:c r="D193" s="36"/>
+      <x:c r="E193" s="37"/>
+      <x:c r="F193" s="38"/>
+      <x:c r="G193" s="36"/>
       <x:c r="H193" s="39" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="194" spans="1:11" outlineLevel="1">
-      <x:c r="B194" s="40" t="n">
-        <x:v>1052</x:v>
+    <x:row r="194" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B194" s="40">
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="C194" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D194" s="42">
+        <x:v>32266</x:v>
+      </x:c>
+      <x:c r="E194" s="42">
+        <x:v>32245</x:v>
+      </x:c>
+      <x:c r="F194" s="43">
+        <x:v>1250</x:v>
+      </x:c>
+      <x:c r="G194" s="43">
+        <x:v>4.5</x:v>
+      </x:c>
+      <x:c r="H194" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B195" s="40">
+        <x:v>1052</x:v>
+      </x:c>
+      <x:c r="C195" s="41"/>
+      <x:c r="D195" s="42">
         <x:v>32515</x:v>
       </x:c>
-      <x:c r="E194" s="42">
+      <x:c r="E195" s="42">
         <x:v>32514</x:v>
       </x:c>
-      <x:c r="F194" s="43" t="n">
+      <x:c r="F195" s="43">
         <x:v>16788</x:v>
       </x:c>
-      <x:c r="G194" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H194" s="43" t="n">
+      <x:c r="G195" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H195" s="43">
         <x:v>16788</x:v>
       </x:c>
     </x:row>
-    <x:row r="195" spans="1:11" outlineLevel="1">
-      <x:c r="B195" s="40" t="n">
+    <x:row r="196" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B196" s="40">
+        <x:v>1055</x:v>
+      </x:c>
+      <x:c r="C196" s="41"/>
+      <x:c r="D196" s="42">
+        <x:v>32544</x:v>
+      </x:c>
+      <x:c r="E196" s="42">
+        <x:v>32543</x:v>
+      </x:c>
+      <x:c r="F196" s="43">
+        <x:v>23406</x:v>
+      </x:c>
+      <x:c r="G196" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H196" s="43">
+        <x:v>23406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B197" s="40">
+        <x:v>1087</x:v>
+      </x:c>
+      <x:c r="C197" s="41"/>
+      <x:c r="D197" s="42">
+        <x:v>32649</x:v>
+      </x:c>
+      <x:c r="E197" s="42">
+        <x:v>32648</x:v>
+      </x:c>
+      <x:c r="F197" s="43">
+        <x:v>14045</x:v>
+      </x:c>
+      <x:c r="G197" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H197" s="43">
+        <x:v>14045</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B198" s="40">
+        <x:v>1152</x:v>
+      </x:c>
+      <x:c r="C198" s="41"/>
+      <x:c r="D198" s="42">
+        <x:v>34431</x:v>
+      </x:c>
+      <x:c r="E198" s="42">
+        <x:v>34431</x:v>
+      </x:c>
+      <x:c r="F198" s="43">
+        <x:v>97698.6</x:v>
+      </x:c>
+      <x:c r="G198" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H198" s="43">
+        <x:v>97698.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B199" s="40">
         <x:v>1155</x:v>
       </x:c>
-      <x:c r="C195" s="41" t="s"/>
-      <x:c r="D195" s="42">
+      <x:c r="C199" s="41"/>
+      <x:c r="D199" s="42">
         <x:v>34459</x:v>
       </x:c>
-      <x:c r="E195" s="42">
+      <x:c r="E199" s="42">
         <x:v>34459</x:v>
       </x:c>
-      <x:c r="F195" s="43" t="n">
+      <x:c r="F199" s="43">
         <x:v>13935.95</x:v>
       </x:c>
-      <x:c r="G195" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H195" s="43" t="n">
+      <x:c r="G199" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H199" s="43">
         <x:v>13935.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="196" spans="1:11" outlineLevel="1">
-      <x:c r="B196" s="40" t="n">
-        <x:v>1152</x:v>
-      </x:c>
-      <x:c r="C196" s="41" t="s"/>
-      <x:c r="D196" s="42">
-        <x:v>34431</x:v>
-      </x:c>
-      <x:c r="E196" s="42">
-        <x:v>34431</x:v>
-      </x:c>
-      <x:c r="F196" s="43" t="n">
-        <x:v>97698.6</x:v>
-      </x:c>
-      <x:c r="G196" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H196" s="43" t="n">
-        <x:v>97698.6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="197" spans="1:11" outlineLevel="1">
-      <x:c r="B197" s="40" t="n">
+    <x:row r="200" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B200" s="40">
         <x:v>1163</x:v>
       </x:c>
-      <x:c r="C197" s="41" t="s"/>
-      <x:c r="D197" s="42">
+      <x:c r="C200" s="41"/>
+      <x:c r="D200" s="42">
         <x:v>34499</x:v>
       </x:c>
-      <x:c r="E197" s="42">
+      <x:c r="E200" s="42">
         <x:v>34499</x:v>
       </x:c>
-      <x:c r="F197" s="43" t="n">
+      <x:c r="F200" s="43">
         <x:v>342</x:v>
       </x:c>
-      <x:c r="G197" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H197" s="43" t="n">
+      <x:c r="G200" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H200" s="43">
         <x:v>342</x:v>
       </x:c>
     </x:row>
-    <x:row r="198" spans="1:11" outlineLevel="1">
-      <x:c r="B198" s="40" t="n">
-        <x:v>1087</x:v>
-      </x:c>
-      <x:c r="C198" s="41" t="s"/>
-      <x:c r="D198" s="42">
-        <x:v>32649</x:v>
-      </x:c>
-      <x:c r="E198" s="42">
-        <x:v>32648</x:v>
-      </x:c>
-      <x:c r="F198" s="43" t="n">
-        <x:v>14045</x:v>
-      </x:c>
-      <x:c r="G198" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H198" s="43" t="n">
-        <x:v>14045</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="199" spans="1:11" outlineLevel="1">
-      <x:c r="B199" s="40" t="n">
-        <x:v>1055</x:v>
-      </x:c>
-      <x:c r="C199" s="41" t="s"/>
-      <x:c r="D199" s="42">
-        <x:v>32544</x:v>
-      </x:c>
-      <x:c r="E199" s="42">
-        <x:v>32543</x:v>
-      </x:c>
-      <x:c r="F199" s="43" t="n">
-        <x:v>23406</x:v>
-      </x:c>
-      <x:c r="G199" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H199" s="43" t="n">
-        <x:v>23406</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="200" spans="1:11" outlineLevel="1">
-      <x:c r="B200" s="40" t="n">
-        <x:v>1003</x:v>
-      </x:c>
-      <x:c r="C200" s="41" t="s"/>
-      <x:c r="D200" s="42">
-        <x:v>32266</x:v>
-      </x:c>
-      <x:c r="E200" s="42">
-        <x:v>32245</x:v>
-      </x:c>
-      <x:c r="F200" s="43" t="n">
-        <x:v>1250</x:v>
-      </x:c>
-      <x:c r="G200" s="43" t="n">
-        <x:v>4.5</x:v>
-      </x:c>
-      <x:c r="H200" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="201" spans="1:11" outlineLevel="1">
-      <x:c r="B201" s="40" t="n">
+    <x:row r="201" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B201" s="40">
         <x:v>1255</x:v>
       </x:c>
-      <x:c r="C201" s="41" t="s"/>
+      <x:c r="C201" s="41"/>
       <x:c r="D201" s="42">
         <x:v>34677</x:v>
       </x:c>
       <x:c r="E201" s="42">
         <x:v>34677</x:v>
       </x:c>
-      <x:c r="F201" s="43" t="n">
+      <x:c r="F201" s="43">
         <x:v>64115.75</x:v>
       </x:c>
-      <x:c r="G201" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H201" s="43" t="n">
+      <x:c r="G201" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H201" s="43">
         <x:v>64115.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="202" spans="1:11" outlineLevel="1">
-      <x:c r="B202" s="40" t="n">
-        <x:v>1275</x:v>
+    <x:row r="202" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B202" s="40">
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="C202" s="41" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D202" s="42">
+        <x:v>32620</x:v>
+      </x:c>
+      <x:c r="E202" s="42">
+        <x:v>32619</x:v>
+      </x:c>
+      <x:c r="F202" s="43">
+        <x:v>8560</x:v>
+      </x:c>
+      <x:c r="G202" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H202" s="43">
+        <x:v>8560</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B203" s="40">
+        <x:v>1275</x:v>
+      </x:c>
+      <x:c r="C203" s="41"/>
+      <x:c r="D203" s="42">
         <x:v>34690</x:v>
       </x:c>
-      <x:c r="E202" s="42">
+      <x:c r="E203" s="42">
         <x:v>34690</x:v>
       </x:c>
-      <x:c r="F202" s="43" t="n">
+      <x:c r="F203" s="43">
         <x:v>16939.5</x:v>
       </x:c>
-      <x:c r="G202" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H202" s="43" t="n">
+      <x:c r="G203" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H203" s="43">
         <x:v>16939.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="203" spans="1:11" outlineLevel="1">
-      <x:c r="B203" s="40" t="n">
-        <x:v>1075</x:v>
-      </x:c>
-      <x:c r="C203" s="41" t="s"/>
-      <x:c r="D203" s="42">
-        <x:v>32620</x:v>
-      </x:c>
-      <x:c r="E203" s="42">
-        <x:v>32619</x:v>
-      </x:c>
-      <x:c r="F203" s="43" t="n">
-        <x:v>8560</x:v>
-      </x:c>
-      <x:c r="G203" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H203" s="43" t="n">
-        <x:v>8560</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="204" spans="1:11" outlineLevel="1">
-      <x:c r="B204" s="40" t="n">
+    <x:row r="204" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B204" s="40">
         <x:v>1067</x:v>
       </x:c>
       <x:c r="C204" s="41" t="s">
@@ -5051,94 +5049,94 @@
       <x:c r="E204" s="42">
         <x:v>32599</x:v>
       </x:c>
-      <x:c r="F204" s="43" t="n">
+      <x:c r="F204" s="43">
         <x:v>4495</x:v>
       </x:c>
-      <x:c r="G204" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H204" s="43" t="n">
+      <x:c r="G204" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H204" s="43">
         <x:v>4495</x:v>
       </x:c>
     </x:row>
-    <x:row r="205" spans="1:11">
-      <x:c r="B205" s="34" t="s"/>
-      <x:c r="C205" s="35" t="s"/>
-      <x:c r="D205" s="36" t="s"/>
-      <x:c r="E205" s="37" t="s"/>
-      <x:c r="F205" s="38" t="s"/>
-      <x:c r="G205" s="36" t="s"/>
+    <x:row r="205" spans="1:11" ht="11.25" customHeight="1">
+      <x:c r="B205" s="34"/>
+      <x:c r="C205" s="35"/>
+      <x:c r="D205" s="36"/>
+      <x:c r="E205" s="37"/>
+      <x:c r="F205" s="38"/>
+      <x:c r="G205" s="36"/>
       <x:c r="H205" s="39" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="206" spans="1:11" outlineLevel="1">
-      <x:c r="B206" s="40" t="n">
-        <x:v>1171</x:v>
+    <x:row r="206" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B206" s="40">
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="C206" s="41" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D206" s="42">
+        <x:v>32608</x:v>
+      </x:c>
+      <x:c r="E206" s="42">
+        <x:v>32607</x:v>
+      </x:c>
+      <x:c r="F206" s="43">
+        <x:v>103041</x:v>
+      </x:c>
+      <x:c r="G206" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H206" s="43">
+        <x:v>103041</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B207" s="40">
+        <x:v>1171</x:v>
+      </x:c>
+      <x:c r="C207" s="41"/>
+      <x:c r="D207" s="42">
         <x:v>34525</x:v>
       </x:c>
-      <x:c r="E206" s="42">
+      <x:c r="E207" s="42">
         <x:v>34525</x:v>
       </x:c>
-      <x:c r="F206" s="43" t="n">
+      <x:c r="F207" s="43">
         <x:v>2356.9</x:v>
       </x:c>
-      <x:c r="G206" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H206" s="43" t="n">
+      <x:c r="G207" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H207" s="43">
         <x:v>2356.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="207" spans="1:11" outlineLevel="1">
-      <x:c r="B207" s="40" t="n">
+    <x:row r="208" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B208" s="40">
         <x:v>1271</x:v>
       </x:c>
-      <x:c r="C207" s="41" t="s"/>
-      <x:c r="D207" s="42">
+      <x:c r="C208" s="41"/>
+      <x:c r="D208" s="42">
         <x:v>34688</x:v>
       </x:c>
-      <x:c r="E207" s="42">
+      <x:c r="E208" s="42">
         <x:v>34688</x:v>
       </x:c>
-      <x:c r="F207" s="43" t="n">
+      <x:c r="F208" s="43">
         <x:v>304</x:v>
       </x:c>
-      <x:c r="G207" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H207" s="43" t="n">
+      <x:c r="G208" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H208" s="43">
         <x:v>304</x:v>
       </x:c>
     </x:row>
-    <x:row r="208" spans="1:11" outlineLevel="1">
-      <x:c r="B208" s="40" t="n">
-        <x:v>1071</x:v>
-      </x:c>
-      <x:c r="C208" s="41" t="s"/>
-      <x:c r="D208" s="42">
-        <x:v>32608</x:v>
-      </x:c>
-      <x:c r="E208" s="42">
-        <x:v>32607</x:v>
-      </x:c>
-      <x:c r="F208" s="43" t="n">
-        <x:v>103041</x:v>
-      </x:c>
-      <x:c r="G208" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H208" s="43" t="n">
-        <x:v>103041</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="209" spans="1:11" outlineLevel="1">
-      <x:c r="B209" s="40" t="n">
+    <x:row r="209" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B209" s="40">
         <x:v>1011</x:v>
       </x:c>
       <x:c r="C209" s="41" t="s">
@@ -5150,39 +5148,39 @@
       <x:c r="E209" s="42">
         <x:v>32281</x:v>
       </x:c>
-      <x:c r="F209" s="43" t="n">
+      <x:c r="F209" s="43">
         <x:v>2679.85</x:v>
       </x:c>
-      <x:c r="G209" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H209" s="43" t="n">
+      <x:c r="G209" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H209" s="43">
         <x:v>2679.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="210" spans="1:11" outlineLevel="1">
-      <x:c r="B210" s="40" t="n">
+    <x:row r="210" spans="1:11" ht="11.25" customHeight="1" outlineLevel="1">
+      <x:c r="B210" s="40">
         <x:v>1111</x:v>
       </x:c>
-      <x:c r="C210" s="41" t="s"/>
+      <x:c r="C210" s="41"/>
       <x:c r="D210" s="42">
         <x:v>33952</x:v>
       </x:c>
       <x:c r="E210" s="42">
         <x:v>33952</x:v>
       </x:c>
-      <x:c r="F210" s="43" t="n">
+      <x:c r="F210" s="43">
         <x:v>4720.8</x:v>
       </x:c>
-      <x:c r="G210" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H210" s="43" t="n">
+      <x:c r="G210" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H210" s="43">
         <x:v>4720.8</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:11" outlineLevel="1">
-      <x:c r="B211" s="40" t="n">
+      <x:c r="B211" s="40">
         <x:v>1035</x:v>
       </x:c>
       <x:c r="C211" s="41" t="s">
@@ -5194,18 +5192,18 @@
       <x:c r="E211" s="42">
         <x:v>32371</x:v>
       </x:c>
-      <x:c r="F211" s="43" t="n">
+      <x:c r="F211" s="43">
         <x:v>560</x:v>
       </x:c>
-      <x:c r="G211" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H211" s="43" t="n">
+      <x:c r="G211" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H211" s="43">
         <x:v>560</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:11" outlineLevel="1">
-      <x:c r="B212" s="40" t="n">
+      <x:c r="B212" s="40">
         <x:v>1154</x:v>
       </x:c>
       <x:c r="C212" s="41" t="s">
@@ -5217,29 +5215,29 @@
       <x:c r="E212" s="42">
         <x:v>34455</x:v>
       </x:c>
-      <x:c r="F212" s="43" t="n">
+      <x:c r="F212" s="43">
         <x:v>13226.8</x:v>
       </x:c>
-      <x:c r="G212" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H212" s="43" t="n">
+      <x:c r="G212" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H212" s="43">
         <x:v>13226.8</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:11">
-      <x:c r="B213" s="34" t="s"/>
-      <x:c r="C213" s="35" t="s"/>
-      <x:c r="D213" s="36" t="s"/>
-      <x:c r="E213" s="37" t="s"/>
-      <x:c r="F213" s="38" t="s"/>
-      <x:c r="G213" s="36" t="s"/>
+      <x:c r="B213" s="34"/>
+      <x:c r="C213" s="35"/>
+      <x:c r="D213" s="36"/>
+      <x:c r="E213" s="37"/>
+      <x:c r="F213" s="38"/>
+      <x:c r="G213" s="36"/>
       <x:c r="H213" s="39" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:11" outlineLevel="1">
-      <x:c r="B214" s="40" t="n">
+      <x:c r="B214" s="40">
         <x:v>1053</x:v>
       </x:c>
       <x:c r="C214" s="41" t="s">
@@ -5251,29 +5249,29 @@
       <x:c r="E214" s="42">
         <x:v>32523</x:v>
       </x:c>
-      <x:c r="F214" s="43" t="n">
+      <x:c r="F214" s="43">
         <x:v>24650</x:v>
       </x:c>
-      <x:c r="G214" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H214" s="43" t="n">
+      <x:c r="G214" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H214" s="43">
         <x:v>24650</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:11">
-      <x:c r="B215" s="34" t="s"/>
-      <x:c r="C215" s="35" t="s"/>
-      <x:c r="D215" s="36" t="s"/>
-      <x:c r="E215" s="37" t="s"/>
-      <x:c r="F215" s="38" t="s"/>
-      <x:c r="G215" s="36" t="s"/>
+      <x:c r="B215" s="34"/>
+      <x:c r="C215" s="35"/>
+      <x:c r="D215" s="36"/>
+      <x:c r="E215" s="37"/>
+      <x:c r="F215" s="38"/>
+      <x:c r="G215" s="36"/>
       <x:c r="H215" s="39" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:11" outlineLevel="1">
-      <x:c r="B216" s="40" t="n">
+      <x:c r="B216" s="40">
         <x:v>1059</x:v>
       </x:c>
       <x:c r="C216" s="41" t="s">
@@ -5285,245 +5283,245 @@
       <x:c r="E216" s="42">
         <x:v>32563</x:v>
       </x:c>
-      <x:c r="F216" s="43" t="n">
+      <x:c r="F216" s="43">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="G216" s="43" t="n">
+      <x:c r="G216" s="43">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="H216" s="43" t="n">
+      <x:c r="H216" s="43">
         <x:v>2150</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:11" outlineLevel="1">
-      <x:c r="B217" s="40" t="n">
+      <x:c r="B217" s="40">
         <x:v>1072</x:v>
       </x:c>
-      <x:c r="C217" s="41" t="s"/>
+      <x:c r="C217" s="41"/>
       <x:c r="D217" s="42">
         <x:v>32610</x:v>
       </x:c>
       <x:c r="E217" s="42">
         <x:v>32609</x:v>
       </x:c>
-      <x:c r="F217" s="43" t="n">
+      <x:c r="F217" s="43">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="G217" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H217" s="43" t="n">
+      <x:c r="G217" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H217" s="43">
         <x:v>3596</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:11" outlineLevel="1">
-      <x:c r="B218" s="40" t="n">
-        <x:v>1280</x:v>
+      <x:c r="B218" s="40">
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="C218" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D218" s="42">
+        <x:v>32634</x:v>
+      </x:c>
+      <x:c r="E218" s="42">
+        <x:v>32633</x:v>
+      </x:c>
+      <x:c r="F218" s="43">
+        <x:v>9634</x:v>
+      </x:c>
+      <x:c r="G218" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H218" s="43">
+        <x:v>9634</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:11" outlineLevel="1">
+      <x:c r="B219" s="40">
+        <x:v>1180</x:v>
+      </x:c>
+      <x:c r="C219" s="41"/>
+      <x:c r="D219" s="42">
+        <x:v>34552</x:v>
+      </x:c>
+      <x:c r="E219" s="42">
+        <x:v>34552</x:v>
+      </x:c>
+      <x:c r="F219" s="43">
+        <x:v>3640</x:v>
+      </x:c>
+      <x:c r="G219" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H219" s="43">
+        <x:v>3640</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:11" outlineLevel="1">
+      <x:c r="B220" s="40">
+        <x:v>1280</x:v>
+      </x:c>
+      <x:c r="C220" s="41"/>
+      <x:c r="D220" s="42">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="E218" s="42">
+      <x:c r="E220" s="42">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="F218" s="43" t="n">
+      <x:c r="F220" s="43">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="G218" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H218" s="43" t="n">
+      <x:c r="G220" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H220" s="43">
         <x:v>4317.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="219" spans="1:11" outlineLevel="1">
-      <x:c r="B219" s="40" t="n">
-        <x:v>1080</x:v>
-      </x:c>
-      <x:c r="C219" s="41" t="s"/>
-      <x:c r="D219" s="42">
-        <x:v>32634</x:v>
-      </x:c>
-      <x:c r="E219" s="42">
-        <x:v>32633</x:v>
-      </x:c>
-      <x:c r="F219" s="43" t="n">
-        <x:v>9634</x:v>
-      </x:c>
-      <x:c r="G219" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H219" s="43" t="n">
-        <x:v>9634</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="220" spans="1:11" outlineLevel="1">
-      <x:c r="B220" s="40" t="n">
-        <x:v>1180</x:v>
-      </x:c>
-      <x:c r="C220" s="41" t="s"/>
-      <x:c r="D220" s="42">
-        <x:v>34552</x:v>
-      </x:c>
-      <x:c r="E220" s="42">
-        <x:v>34552</x:v>
-      </x:c>
-      <x:c r="F220" s="43" t="n">
-        <x:v>3640</x:v>
-      </x:c>
-      <x:c r="G220" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H220" s="43" t="n">
-        <x:v>3640</x:v>
-      </x:c>
-    </x:row>
     <x:row r="221" spans="1:11" outlineLevel="1">
-      <x:c r="B221" s="40" t="n">
-        <x:v>1105</x:v>
+      <x:c r="B221" s="40">
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="C221" s="41" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D221" s="42">
+        <x:v>32163</x:v>
+      </x:c>
+      <x:c r="E221" s="42">
+        <x:v>32253</x:v>
+      </x:c>
+      <x:c r="F221" s="43">
+        <x:v>4807</x:v>
+      </x:c>
+      <x:c r="G221" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H221" s="43">
+        <x:v>4807</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:11" outlineLevel="1">
+      <x:c r="B222" s="40">
+        <x:v>1105</x:v>
+      </x:c>
+      <x:c r="C222" s="41"/>
+      <x:c r="D222" s="42">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="E221" s="42">
+      <x:c r="E222" s="42">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="F221" s="43" t="n">
+      <x:c r="F222" s="43">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="G221" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H221" s="43" t="n">
+      <x:c r="G222" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H222" s="43">
         <x:v>31219.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="222" spans="1:11" outlineLevel="1">
-      <x:c r="B222" s="40" t="n">
-        <x:v>1005</x:v>
-      </x:c>
-      <x:c r="C222" s="41" t="s"/>
-      <x:c r="D222" s="42">
-        <x:v>32163</x:v>
-      </x:c>
-      <x:c r="E222" s="42">
-        <x:v>32253</x:v>
-      </x:c>
-      <x:c r="F222" s="43" t="n">
-        <x:v>4807</x:v>
-      </x:c>
-      <x:c r="G222" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H222" s="43" t="n">
-        <x:v>4807</x:v>
-      </x:c>
-    </x:row>
     <x:row r="223" spans="1:11" outlineLevel="1">
-      <x:c r="B223" s="40" t="n">
+      <x:c r="B223" s="40">
+        <x:v>1266</x:v>
+      </x:c>
+      <x:c r="C223" s="41"/>
+      <x:c r="D223" s="42">
+        <x:v>34683</x:v>
+      </x:c>
+      <x:c r="E223" s="42">
+        <x:v>34683</x:v>
+      </x:c>
+      <x:c r="F223" s="43">
+        <x:v>6935</x:v>
+      </x:c>
+      <x:c r="G223" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H223" s="43">
+        <x:v>6935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:11" outlineLevel="1">
+      <x:c r="B224" s="40">
         <x:v>1305</x:v>
       </x:c>
-      <x:c r="C223" s="41" t="s"/>
-      <x:c r="D223" s="42">
+      <x:c r="C224" s="41"/>
+      <x:c r="D224" s="42">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="E223" s="42">
+      <x:c r="E224" s="42">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="F223" s="43" t="n">
+      <x:c r="F224" s="43">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="G223" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H223" s="43" t="n">
+      <x:c r="G224" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H224" s="43">
         <x:v>3065</x:v>
       </x:c>
     </x:row>
-    <x:row r="224" spans="1:11" outlineLevel="1">
-      <x:c r="B224" s="40" t="n">
-        <x:v>1266</x:v>
-      </x:c>
-      <x:c r="C224" s="41" t="s"/>
-      <x:c r="D224" s="42">
-        <x:v>34683</x:v>
-      </x:c>
-      <x:c r="E224" s="42">
-        <x:v>34683</x:v>
-      </x:c>
-      <x:c r="F224" s="43" t="n">
-        <x:v>6935</x:v>
-      </x:c>
-      <x:c r="G224" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H224" s="43" t="n">
-        <x:v>6935</x:v>
-      </x:c>
-    </x:row>
     <x:row r="225" spans="1:11">
-      <x:c r="B225" s="34" t="s"/>
-      <x:c r="C225" s="35" t="s"/>
-      <x:c r="D225" s="36" t="s"/>
-      <x:c r="E225" s="37" t="s"/>
-      <x:c r="F225" s="38" t="s"/>
-      <x:c r="G225" s="36" t="s"/>
+      <x:c r="B225" s="34"/>
+      <x:c r="C225" s="35"/>
+      <x:c r="D225" s="36"/>
+      <x:c r="E225" s="37"/>
+      <x:c r="F225" s="38"/>
+      <x:c r="G225" s="36"/>
       <x:c r="H225" s="39" t="s">
         <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:11" outlineLevel="1">
-      <x:c r="B226" s="40" t="n">
-        <x:v>1119</x:v>
+      <x:c r="B226" s="40">
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="C226" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D226" s="42">
+        <x:v>32381</x:v>
+      </x:c>
+      <x:c r="E226" s="42">
+        <x:v>32380</x:v>
+      </x:c>
+      <x:c r="F226" s="43">
+        <x:v>4110</x:v>
+      </x:c>
+      <x:c r="G226" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H226" s="43">
+        <x:v>4110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:11" outlineLevel="1">
+      <x:c r="B227" s="40">
+        <x:v>1119</x:v>
+      </x:c>
+      <x:c r="C227" s="41"/>
+      <x:c r="D227" s="42">
         <x:v>34104</x:v>
       </x:c>
-      <x:c r="E226" s="42">
+      <x:c r="E227" s="42">
         <x:v>34104</x:v>
       </x:c>
-      <x:c r="F226" s="43" t="n">
+      <x:c r="F227" s="43">
         <x:v>14557.95</x:v>
       </x:c>
-      <x:c r="G226" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H226" s="43" t="n">
+      <x:c r="G227" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H227" s="43">
         <x:v>14557.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="227" spans="1:11" outlineLevel="1">
-      <x:c r="B227" s="40" t="n">
-        <x:v>1036</x:v>
-      </x:c>
-      <x:c r="C227" s="41" t="s"/>
-      <x:c r="D227" s="42">
-        <x:v>32381</x:v>
-      </x:c>
-      <x:c r="E227" s="42">
-        <x:v>32380</x:v>
-      </x:c>
-      <x:c r="F227" s="43" t="n">
-        <x:v>4110</x:v>
-      </x:c>
-      <x:c r="G227" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H227" s="43" t="n">
-        <x:v>4110</x:v>
-      </x:c>
-    </x:row>
     <x:row r="228" spans="1:11" outlineLevel="1">
-      <x:c r="B228" s="40" t="n">
+      <x:c r="B228" s="40">
         <x:v>1195</x:v>
       </x:c>
       <x:c r="C228" s="41" t="s">
@@ -5535,29 +5533,29 @@
       <x:c r="E228" s="42">
         <x:v>34583</x:v>
       </x:c>
-      <x:c r="F228" s="43" t="n">
+      <x:c r="F228" s="43">
         <x:v>7868</x:v>
       </x:c>
-      <x:c r="G228" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H228" s="43" t="n">
+      <x:c r="G228" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H228" s="43">
         <x:v>7868</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:11">
-      <x:c r="B229" s="34" t="s"/>
-      <x:c r="C229" s="35" t="s"/>
-      <x:c r="D229" s="36" t="s"/>
-      <x:c r="E229" s="37" t="s"/>
-      <x:c r="F229" s="38" t="s"/>
-      <x:c r="G229" s="36" t="s"/>
+      <x:c r="B229" s="34"/>
+      <x:c r="C229" s="35"/>
+      <x:c r="D229" s="36"/>
+      <x:c r="E229" s="37"/>
+      <x:c r="F229" s="38"/>
+      <x:c r="G229" s="36"/>
       <x:c r="H229" s="39" t="s">
         <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:11" outlineLevel="1">
-      <x:c r="B230" s="40" t="n">
+      <x:c r="B230" s="40">
         <x:v>1115</x:v>
       </x:c>
       <x:c r="C230" s="41" t="s">
@@ -5569,29 +5567,29 @@
       <x:c r="E230" s="42">
         <x:v>34041</x:v>
       </x:c>
-      <x:c r="F230" s="43" t="n">
+      <x:c r="F230" s="43">
         <x:v>4894.95</x:v>
       </x:c>
-      <x:c r="G230" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H230" s="43" t="n">
+      <x:c r="G230" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H230" s="43">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:11">
-      <x:c r="B231" s="34" t="s"/>
-      <x:c r="C231" s="35" t="s"/>
-      <x:c r="D231" s="36" t="s"/>
-      <x:c r="E231" s="37" t="s"/>
-      <x:c r="F231" s="38" t="s"/>
-      <x:c r="G231" s="36" t="s"/>
+      <x:c r="B231" s="34"/>
+      <x:c r="C231" s="35"/>
+      <x:c r="D231" s="36"/>
+      <x:c r="E231" s="37"/>
+      <x:c r="F231" s="38"/>
+      <x:c r="G231" s="36"/>
       <x:c r="H231" s="39" t="s">
         <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:11" outlineLevel="1">
-      <x:c r="B232" s="40" t="n">
+      <x:c r="B232" s="40">
         <x:v>1070</x:v>
       </x:c>
       <x:c r="C232" s="41" t="s">
@@ -5603,126 +5601,126 @@
       <x:c r="E232" s="42">
         <x:v>32605</x:v>
       </x:c>
-      <x:c r="F232" s="43" t="n">
+      <x:c r="F232" s="43">
         <x:v>22354</x:v>
       </x:c>
-      <x:c r="G232" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H232" s="43" t="n">
+      <x:c r="G232" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H232" s="43">
         <x:v>22354</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:11">
-      <x:c r="B233" s="34" t="s"/>
-      <x:c r="C233" s="35" t="s"/>
-      <x:c r="D233" s="36" t="s"/>
-      <x:c r="E233" s="37" t="s"/>
-      <x:c r="F233" s="38" t="s"/>
-      <x:c r="G233" s="36" t="s"/>
+      <x:c r="B233" s="34"/>
+      <x:c r="C233" s="35"/>
+      <x:c r="D233" s="36"/>
+      <x:c r="E233" s="37"/>
+      <x:c r="F233" s="38"/>
+      <x:c r="G233" s="36"/>
       <x:c r="H233" s="39" t="s">
         <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:11" outlineLevel="1">
-      <x:c r="B234" s="40" t="n">
-        <x:v>1250</x:v>
+      <x:c r="B234" s="40">
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="C234" s="41" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D234" s="42">
+        <x:v>32502</x:v>
+      </x:c>
+      <x:c r="E234" s="42">
+        <x:v>32501</x:v>
+      </x:c>
+      <x:c r="F234" s="43">
+        <x:v>6287.85</x:v>
+      </x:c>
+      <x:c r="G234" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H234" s="43">
+        <x:v>6287.85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" spans="1:11" outlineLevel="1">
+      <x:c r="B235" s="40">
+        <x:v>1150</x:v>
+      </x:c>
+      <x:c r="C235" s="41"/>
+      <x:c r="D235" s="42">
+        <x:v>34418</x:v>
+      </x:c>
+      <x:c r="E235" s="42">
+        <x:v>34418</x:v>
+      </x:c>
+      <x:c r="F235" s="43">
+        <x:v>7671.9</x:v>
+      </x:c>
+      <x:c r="G235" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H235" s="43">
+        <x:v>7671.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" spans="1:11" outlineLevel="1">
+      <x:c r="B236" s="40">
+        <x:v>1250</x:v>
+      </x:c>
+      <x:c r="C236" s="41"/>
+      <x:c r="D236" s="42">
         <x:v>34662</x:v>
       </x:c>
-      <x:c r="E234" s="42">
+      <x:c r="E236" s="42">
         <x:v>34662</x:v>
       </x:c>
-      <x:c r="F234" s="43" t="n">
+      <x:c r="F236" s="43">
         <x:v>45160.1</x:v>
       </x:c>
-      <x:c r="G234" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H234" s="43" t="n">
+      <x:c r="G236" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H236" s="43">
         <x:v>45160.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="235" spans="1:11" outlineLevel="1">
-      <x:c r="B235" s="40" t="n">
+    <x:row r="237" spans="1:11" outlineLevel="1">
+      <x:c r="B237" s="40">
         <x:v>1350</x:v>
       </x:c>
-      <x:c r="C235" s="41" t="s"/>
-      <x:c r="D235" s="42">
+      <x:c r="C237" s="41"/>
+      <x:c r="D237" s="42">
         <x:v>34732</x:v>
       </x:c>
-      <x:c r="E235" s="42">
+      <x:c r="E237" s="42">
         <x:v>34732</x:v>
       </x:c>
-      <x:c r="F235" s="43" t="n">
+      <x:c r="F237" s="43">
         <x:v>8939.6</x:v>
       </x:c>
-      <x:c r="G235" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H235" s="43" t="n">
+      <x:c r="G237" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H237" s="43">
         <x:v>8939.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="236" spans="1:11" outlineLevel="1">
-      <x:c r="B236" s="40" t="n">
-        <x:v>1050</x:v>
-      </x:c>
-      <x:c r="C236" s="41" t="s"/>
-      <x:c r="D236" s="42">
-        <x:v>32502</x:v>
-      </x:c>
-      <x:c r="E236" s="42">
-        <x:v>32501</x:v>
-      </x:c>
-      <x:c r="F236" s="43" t="n">
-        <x:v>6287.85</x:v>
-      </x:c>
-      <x:c r="G236" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H236" s="43" t="n">
-        <x:v>6287.85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="237" spans="1:11" outlineLevel="1">
-      <x:c r="B237" s="40" t="n">
-        <x:v>1150</x:v>
-      </x:c>
-      <x:c r="C237" s="41" t="s"/>
-      <x:c r="D237" s="42">
-        <x:v>34418</x:v>
-      </x:c>
-      <x:c r="E237" s="42">
-        <x:v>34418</x:v>
-      </x:c>
-      <x:c r="F237" s="43" t="n">
-        <x:v>7671.9</x:v>
-      </x:c>
-      <x:c r="G237" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H237" s="43" t="n">
-        <x:v>7671.9</x:v>
-      </x:c>
-    </x:row>
     <x:row r="238" spans="1:11">
-      <x:c r="B238" s="34" t="s"/>
-      <x:c r="C238" s="35" t="s"/>
-      <x:c r="D238" s="36" t="s"/>
-      <x:c r="E238" s="37" t="s"/>
-      <x:c r="F238" s="38" t="s"/>
-      <x:c r="G238" s="36" t="s"/>
+      <x:c r="B238" s="34"/>
+      <x:c r="C238" s="35"/>
+      <x:c r="D238" s="36"/>
+      <x:c r="E238" s="37"/>
+      <x:c r="F238" s="38"/>
+      <x:c r="G238" s="36"/>
       <x:c r="H238" s="39" t="s">
         <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:11" outlineLevel="1">
-      <x:c r="B239" s="40" t="n">
+      <x:c r="B239" s="40">
         <x:v>1060</x:v>
       </x:c>
       <x:c r="C239" s="41" t="s">
@@ -5734,146 +5732,146 @@
       <x:c r="E239" s="42">
         <x:v>32567</x:v>
       </x:c>
-      <x:c r="F239" s="43" t="n">
+      <x:c r="F239" s="43">
         <x:v>15355</x:v>
       </x:c>
-      <x:c r="G239" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H239" s="43" t="n">
+      <x:c r="G239" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H239" s="43">
         <x:v>15355</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:11" outlineLevel="1">
-      <x:c r="B240" s="40" t="n">
+      <x:c r="B240" s="40">
         <x:v>1160</x:v>
       </x:c>
-      <x:c r="C240" s="41" t="s"/>
+      <x:c r="C240" s="41"/>
       <x:c r="D240" s="42">
         <x:v>34486</x:v>
       </x:c>
       <x:c r="E240" s="42">
         <x:v>34486</x:v>
       </x:c>
-      <x:c r="F240" s="43" t="n">
+      <x:c r="F240" s="43">
         <x:v>2206.85</x:v>
       </x:c>
-      <x:c r="G240" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H240" s="43" t="n">
+      <x:c r="G240" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H240" s="43">
         <x:v>2206.85</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:11" outlineLevel="1">
-      <x:c r="B241" s="40" t="n">
-        <x:v>1202</x:v>
+      <x:c r="B241" s="40">
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="C241" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D241" s="42">
-        <x:v>34613</x:v>
+        <x:v>33761</x:v>
       </x:c>
       <x:c r="E241" s="42">
-        <x:v>34613</x:v>
-      </x:c>
-      <x:c r="F241" s="43" t="n">
-        <x:v>4205</x:v>
-      </x:c>
-      <x:c r="G241" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H241" s="43" t="n">
-        <x:v>4205</x:v>
+        <x:v>33761</x:v>
+      </x:c>
+      <x:c r="F241" s="43">
+        <x:v>2844</x:v>
+      </x:c>
+      <x:c r="G241" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H241" s="43">
+        <x:v>2844</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:11" outlineLevel="1">
-      <x:c r="B242" s="40" t="n">
+      <x:c r="B242" s="40">
         <x:v>1178</x:v>
       </x:c>
-      <x:c r="C242" s="41" t="s"/>
+      <x:c r="C242" s="41"/>
       <x:c r="D242" s="42">
         <x:v>34548</x:v>
       </x:c>
       <x:c r="E242" s="42">
         <x:v>34548</x:v>
       </x:c>
-      <x:c r="F242" s="43" t="n">
+      <x:c r="F242" s="43">
         <x:v>5511.75</x:v>
       </x:c>
-      <x:c r="G242" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H242" s="43" t="n">
+      <x:c r="G242" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H242" s="43">
         <x:v>5511.75</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:11" outlineLevel="1">
-      <x:c r="B243" s="40" t="n">
-        <x:v>1302</x:v>
-      </x:c>
-      <x:c r="C243" s="41" t="s"/>
+      <x:c r="B243" s="40">
+        <x:v>1202</x:v>
+      </x:c>
+      <x:c r="C243" s="41"/>
       <x:c r="D243" s="42">
-        <x:v>34715</x:v>
+        <x:v>34613</x:v>
       </x:c>
       <x:c r="E243" s="42">
-        <x:v>34715</x:v>
-      </x:c>
-      <x:c r="F243" s="43" t="n">
-        <x:v>24485</x:v>
-      </x:c>
-      <x:c r="G243" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H243" s="43" t="n">
-        <x:v>24485</x:v>
+        <x:v>34613</x:v>
+      </x:c>
+      <x:c r="F243" s="43">
+        <x:v>4205</x:v>
+      </x:c>
+      <x:c r="G243" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H243" s="43">
+        <x:v>4205</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:11" outlineLevel="1">
-      <x:c r="B244" s="40" t="n">
+      <x:c r="B244" s="40">
         <x:v>1278</x:v>
       </x:c>
-      <x:c r="C244" s="41" t="s"/>
+      <x:c r="C244" s="41"/>
       <x:c r="D244" s="42">
         <x:v>34691</x:v>
       </x:c>
       <x:c r="E244" s="42">
         <x:v>34691</x:v>
       </x:c>
-      <x:c r="F244" s="43" t="n">
+      <x:c r="F244" s="43">
         <x:v>11568</x:v>
       </x:c>
-      <x:c r="G244" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H244" s="43" t="n">
+      <x:c r="G244" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H244" s="43">
         <x:v>11568</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:11" outlineLevel="1">
-      <x:c r="B245" s="40" t="n">
-        <x:v>1102</x:v>
-      </x:c>
-      <x:c r="C245" s="41" t="s"/>
+      <x:c r="B245" s="40">
+        <x:v>1302</x:v>
+      </x:c>
+      <x:c r="C245" s="41"/>
       <x:c r="D245" s="42">
-        <x:v>33761</x:v>
+        <x:v>34715</x:v>
       </x:c>
       <x:c r="E245" s="42">
-        <x:v>33761</x:v>
-      </x:c>
-      <x:c r="F245" s="43" t="n">
-        <x:v>2844</x:v>
-      </x:c>
-      <x:c r="G245" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H245" s="43" t="n">
-        <x:v>2844</x:v>
+        <x:v>34715</x:v>
+      </x:c>
+      <x:c r="F245" s="43">
+        <x:v>24485</x:v>
+      </x:c>
+      <x:c r="G245" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H245" s="43">
+        <x:v>24485</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:11" outlineLevel="1">
-      <x:c r="B246" s="40" t="n">
+      <x:c r="B246" s="40">
         <x:v>1073</x:v>
       </x:c>
       <x:c r="C246" s="41" t="s">
@@ -5885,50 +5883,50 @@
       <x:c r="E246" s="42">
         <x:v>32613</x:v>
       </x:c>
-      <x:c r="F246" s="43" t="n">
+      <x:c r="F246" s="43">
         <x:v>19414</x:v>
       </x:c>
-      <x:c r="G246" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H246" s="43" t="n">
+      <x:c r="G246" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H246" s="43">
         <x:v>19414</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:11" outlineLevel="1">
-      <x:c r="B247" s="40" t="n">
+      <x:c r="B247" s="40">
         <x:v>1173</x:v>
       </x:c>
-      <x:c r="C247" s="41" t="s"/>
+      <x:c r="C247" s="41"/>
       <x:c r="D247" s="42">
         <x:v>34531</x:v>
       </x:c>
       <x:c r="E247" s="42">
         <x:v>34531</x:v>
       </x:c>
-      <x:c r="F247" s="43" t="n">
+      <x:c r="F247" s="43">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G247" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H247" s="43" t="n">
+      <x:c r="G247" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H247" s="43">
         <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:11">
-      <x:c r="B248" s="34" t="s"/>
-      <x:c r="C248" s="35" t="s"/>
-      <x:c r="D248" s="36" t="s"/>
-      <x:c r="E248" s="37" t="s"/>
-      <x:c r="F248" s="38" t="s"/>
-      <x:c r="G248" s="36" t="s"/>
+      <x:c r="B248" s="34"/>
+      <x:c r="C248" s="35"/>
+      <x:c r="D248" s="36"/>
+      <x:c r="E248" s="37"/>
+      <x:c r="F248" s="38"/>
+      <x:c r="G248" s="36"/>
       <x:c r="H248" s="39" t="s">
         <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:11" outlineLevel="1">
-      <x:c r="B249" s="40" t="n">
+      <x:c r="B249" s="40">
         <x:v>1296</x:v>
       </x:c>
       <x:c r="C249" s="41" t="s">
@@ -5940,29 +5938,29 @@
       <x:c r="E249" s="42">
         <x:v>34707</x:v>
       </x:c>
-      <x:c r="F249" s="43" t="n">
+      <x:c r="F249" s="43">
         <x:v>7423.35</x:v>
       </x:c>
-      <x:c r="G249" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H249" s="43" t="n">
+      <x:c r="G249" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H249" s="43">
         <x:v>7423.35</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:11">
-      <x:c r="B250" s="34" t="s"/>
-      <x:c r="C250" s="35" t="s"/>
-      <x:c r="D250" s="36" t="s"/>
-      <x:c r="E250" s="37" t="s"/>
-      <x:c r="F250" s="38" t="s"/>
-      <x:c r="G250" s="36" t="s"/>
+      <x:c r="B250" s="34"/>
+      <x:c r="C250" s="35"/>
+      <x:c r="D250" s="36"/>
+      <x:c r="E250" s="37"/>
+      <x:c r="F250" s="38"/>
+      <x:c r="G250" s="36"/>
       <x:c r="H250" s="39" t="s">
         <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:11" outlineLevel="1">
-      <x:c r="B251" s="40" t="n">
+      <x:c r="B251" s="40">
         <x:v>1033</x:v>
       </x:c>
       <x:c r="C251" s="41" t="s">
@@ -5974,18 +5972,18 @@
       <x:c r="E251" s="42">
         <x:v>32356</x:v>
       </x:c>
-      <x:c r="F251" s="43" t="n">
+      <x:c r="F251" s="43">
         <x:v>1238</x:v>
       </x:c>
-      <x:c r="G251" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H251" s="43" t="n">
+      <x:c r="G251" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H251" s="43">
         <x:v>1238</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:11" outlineLevel="1">
-      <x:c r="B252" s="40" t="n">
+      <x:c r="B252" s="40">
         <x:v>1124</x:v>
       </x:c>
       <x:c r="C252" s="41" t="s">
@@ -5997,245 +5995,245 @@
       <x:c r="E252" s="42">
         <x:v>34213</x:v>
       </x:c>
-      <x:c r="F252" s="43" t="n">
+      <x:c r="F252" s="43">
         <x:v>33071</x:v>
       </x:c>
-      <x:c r="G252" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H252" s="43" t="n">
+      <x:c r="G252" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H252" s="43">
         <x:v>33071</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:11" outlineLevel="1">
-      <x:c r="B253" s="40" t="n">
-        <x:v>1200</x:v>
+      <x:c r="B253" s="40">
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="C253" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D253" s="42">
+        <x:v>32679</x:v>
+      </x:c>
+      <x:c r="E253" s="42">
+        <x:v>32679</x:v>
+      </x:c>
+      <x:c r="F253" s="43">
+        <x:v>6094.8</x:v>
+      </x:c>
+      <x:c r="G253" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H253" s="43">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:11" outlineLevel="1">
+      <x:c r="B254" s="40">
+        <x:v>1200</x:v>
+      </x:c>
+      <x:c r="C254" s="41"/>
+      <x:c r="D254" s="42">
         <x:v>34597</x:v>
       </x:c>
-      <x:c r="E253" s="42">
+      <x:c r="E254" s="42">
         <x:v>34597</x:v>
       </x:c>
-      <x:c r="F253" s="43" t="n">
+      <x:c r="F254" s="43">
         <x:v>1827</x:v>
       </x:c>
-      <x:c r="G253" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H253" s="43" t="n">
+      <x:c r="G254" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H254" s="43">
         <x:v>1827</x:v>
       </x:c>
     </x:row>
-    <x:row r="254" spans="1:11" outlineLevel="1">
-      <x:c r="B254" s="40" t="n">
+    <x:row r="255" spans="1:11" outlineLevel="1">
+      <x:c r="B255" s="40">
         <x:v>1300</x:v>
       </x:c>
-      <x:c r="C254" s="41" t="s"/>
-      <x:c r="D254" s="42">
+      <x:c r="C255" s="41"/>
+      <x:c r="D255" s="42">
         <x:v>34709</x:v>
       </x:c>
-      <x:c r="E254" s="42">
+      <x:c r="E255" s="42">
         <x:v>34709</x:v>
       </x:c>
-      <x:c r="F254" s="43" t="n">
+      <x:c r="F255" s="43">
         <x:v>52729.25</x:v>
       </x:c>
-      <x:c r="G254" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H254" s="43" t="n">
+      <x:c r="G255" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H255" s="43">
         <x:v>52729.25</x:v>
       </x:c>
     </x:row>
-    <x:row r="255" spans="1:11" outlineLevel="1">
-      <x:c r="B255" s="40" t="n">
-        <x:v>1100</x:v>
-      </x:c>
-      <x:c r="C255" s="41" t="s"/>
-      <x:c r="D255" s="42">
-        <x:v>32679</x:v>
-      </x:c>
-      <x:c r="E255" s="42">
-        <x:v>32679</x:v>
-      </x:c>
-      <x:c r="F255" s="43" t="n">
-        <x:v>6094.8</x:v>
-      </x:c>
-      <x:c r="G255" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H255" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
     <x:row r="256" spans="1:11" outlineLevel="1">
-      <x:c r="B256" s="40" t="n">
-        <x:v>1127</x:v>
+      <x:c r="B256" s="40">
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="C256" s="41" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D256" s="42">
+        <x:v>32265</x:v>
+      </x:c>
+      <x:c r="E256" s="42">
+        <x:v>32264</x:v>
+      </x:c>
+      <x:c r="F256" s="43">
+        <x:v>6500</x:v>
+      </x:c>
+      <x:c r="G256" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H256" s="43">
+        <x:v>6500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:11" outlineLevel="1">
+      <x:c r="B257" s="40">
+        <x:v>1027</x:v>
+      </x:c>
+      <x:c r="C257" s="41"/>
+      <x:c r="D257" s="42">
+        <x:v>32332</x:v>
+      </x:c>
+      <x:c r="E257" s="42">
+        <x:v>32331</x:v>
+      </x:c>
+      <x:c r="F257" s="43">
+        <x:v>25210</x:v>
+      </x:c>
+      <x:c r="G257" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H257" s="43">
+        <x:v>25210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258" spans="1:11" outlineLevel="1">
+      <x:c r="B258" s="40">
+        <x:v>1107</x:v>
+      </x:c>
+      <x:c r="C258" s="41"/>
+      <x:c r="D258" s="42">
+        <x:v>33901</x:v>
+      </x:c>
+      <x:c r="E258" s="42">
+        <x:v>33901</x:v>
+      </x:c>
+      <x:c r="F258" s="43">
+        <x:v>28389</x:v>
+      </x:c>
+      <x:c r="G258" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H258" s="43">
+        <x:v>28389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259" spans="1:11" outlineLevel="1">
+      <x:c r="B259" s="40">
+        <x:v>1127</x:v>
+      </x:c>
+      <x:c r="C259" s="41"/>
+      <x:c r="D259" s="42">
         <x:v>34244</x:v>
       </x:c>
-      <x:c r="E256" s="42">
+      <x:c r="E259" s="42">
         <x:v>34244</x:v>
       </x:c>
-      <x:c r="F256" s="43" t="n">
+      <x:c r="F259" s="43">
         <x:v>25071</x:v>
       </x:c>
-      <x:c r="G256" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H256" s="43" t="n">
+      <x:c r="G259" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H259" s="43">
         <x:v>25071</x:v>
       </x:c>
     </x:row>
-    <x:row r="257" spans="1:11" outlineLevel="1">
-      <x:c r="B257" s="40" t="n">
+    <x:row r="260" spans="1:11" outlineLevel="1">
+      <x:c r="B260" s="40">
         <x:v>1207</x:v>
       </x:c>
-      <x:c r="C257" s="41" t="s"/>
-      <x:c r="D257" s="42">
+      <x:c r="C260" s="41"/>
+      <x:c r="D260" s="42">
         <x:v>34649</x:v>
       </x:c>
-      <x:c r="E257" s="42">
+      <x:c r="E260" s="42">
         <x:v>34649</x:v>
       </x:c>
-      <x:c r="F257" s="43" t="n">
+      <x:c r="F260" s="43">
         <x:v>12949.7</x:v>
       </x:c>
-      <x:c r="G257" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H257" s="43" t="n">
+      <x:c r="G260" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H260" s="43">
         <x:v>12949.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="258" spans="1:11" outlineLevel="1">
-      <x:c r="B258" s="40" t="n">
-        <x:v>1027</x:v>
-      </x:c>
-      <x:c r="C258" s="41" t="s"/>
-      <x:c r="D258" s="42">
-        <x:v>32332</x:v>
-      </x:c>
-      <x:c r="E258" s="42">
-        <x:v>32331</x:v>
-      </x:c>
-      <x:c r="F258" s="43" t="n">
-        <x:v>25210</x:v>
-      </x:c>
-      <x:c r="G258" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H258" s="43" t="n">
-        <x:v>25210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="259" spans="1:11" outlineLevel="1">
-      <x:c r="B259" s="40" t="n">
-        <x:v>1107</x:v>
-      </x:c>
-      <x:c r="C259" s="41" t="s"/>
-      <x:c r="D259" s="42">
-        <x:v>33901</x:v>
-      </x:c>
-      <x:c r="E259" s="42">
-        <x:v>33901</x:v>
-      </x:c>
-      <x:c r="F259" s="43" t="n">
-        <x:v>28389</x:v>
-      </x:c>
-      <x:c r="G259" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H259" s="43" t="n">
-        <x:v>28389</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="260" spans="1:11" outlineLevel="1">
-      <x:c r="B260" s="40" t="n">
-        <x:v>1007</x:v>
-      </x:c>
-      <x:c r="C260" s="41" t="s"/>
-      <x:c r="D260" s="42">
-        <x:v>32265</x:v>
-      </x:c>
-      <x:c r="E260" s="42">
-        <x:v>32264</x:v>
-      </x:c>
-      <x:c r="F260" s="43" t="n">
-        <x:v>6500</x:v>
-      </x:c>
-      <x:c r="G260" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H260" s="43" t="n">
-        <x:v>6500</x:v>
-      </x:c>
-    </x:row>
     <x:row r="261" spans="1:11">
-      <x:c r="B261" s="34" t="s"/>
-      <x:c r="C261" s="35" t="s"/>
-      <x:c r="D261" s="36" t="s"/>
-      <x:c r="E261" s="37" t="s"/>
-      <x:c r="F261" s="38" t="s"/>
-      <x:c r="G261" s="36" t="s"/>
+      <x:c r="B261" s="34"/>
+      <x:c r="C261" s="35"/>
+      <x:c r="D261" s="36"/>
+      <x:c r="E261" s="37"/>
+      <x:c r="F261" s="38"/>
+      <x:c r="G261" s="36"/>
       <x:c r="H261" s="39" t="s">
         <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:11" outlineLevel="1">
-      <x:c r="B262" s="40" t="n">
-        <x:v>1140</x:v>
+      <x:c r="B262" s="40">
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="C262" s="41" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D262" s="42">
+        <x:v>32391</x:v>
+      </x:c>
+      <x:c r="E262" s="42">
+        <x:v>32390</x:v>
+      </x:c>
+      <x:c r="F262" s="43">
+        <x:v>3632</x:v>
+      </x:c>
+      <x:c r="G262" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H262" s="43">
+        <x:v>3632</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263" spans="1:11" outlineLevel="1">
+      <x:c r="B263" s="40">
+        <x:v>1140</x:v>
+      </x:c>
+      <x:c r="C263" s="41"/>
+      <x:c r="D263" s="42">
         <x:v>34315</x:v>
       </x:c>
-      <x:c r="E262" s="42">
+      <x:c r="E263" s="42">
         <x:v>34315</x:v>
       </x:c>
-      <x:c r="F262" s="43" t="n">
+      <x:c r="F263" s="43">
         <x:v>1240</x:v>
       </x:c>
-      <x:c r="G262" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H262" s="43" t="n">
+      <x:c r="G263" s="43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H263" s="43">
         <x:v>1240</x:v>
       </x:c>
     </x:row>
-    <x:row r="263" spans="1:11" outlineLevel="1">
-      <x:c r="B263" s="40" t="n">
-        <x:v>1040</x:v>
-      </x:c>
-      <x:c r="C263" s="41" t="s"/>
-      <x:c r="D263" s="42">
-        <x:v>32391</x:v>
-      </x:c>
-      <x:c r="E263" s="42">
-        <x:v>32390</x:v>
-      </x:c>
-      <x:c r="F263" s="43" t="n">
-        <x:v>3632</x:v>
-      </x:c>
-      <x:c r="G263" s="43" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H263" s="43" t="n">
-        <x:v>3632</x:v>
-      </x:c>
-    </x:row>
     <x:row r="264" spans="1:11">
-      <x:c r="H264" s="44" t="s"/>
+      <x:c r="H264" s="44"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="56">
